--- a/datas/ekidata.jp/station20180330free.xlsx
+++ b/datas/ekidata.jp/station20180330free.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takahiro/Documents/GitHub/station_sim/datas/ekidata.jp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F1C69-7C18-5440-9AA4-C16E56A4CE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB416F82-504E-4D4E-9C3E-E380F3750D04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="20480" windowHeight="15360" xr2:uid="{46D12BFE-A05B-3048-9F1B-7DB7D79E41A9}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="15540" xr2:uid="{46D12BFE-A05B-3048-9F1B-7DB7D79E41A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$192</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB5C087-4024-F84C-89F2-EDD1E275DAE9}">
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,16 +1787,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1141104</v>
+        <v>1141101</v>
       </c>
       <c r="B2">
-        <v>1141104</v>
+        <v>1141101</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>1141104</v>
+        <v>1141101</v>
       </c>
       <c r="F2">
         <v>11411</v>
@@ -1805,36 +1805,36 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>136.930665</v>
+        <v>136.88163700000001</v>
       </c>
       <c r="K2">
-        <v>35.170167999999997</v>
+        <v>35.170693999999997</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1141104</v>
+        <v>1141101</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1141101</v>
+        <v>1141102</v>
       </c>
       <c r="B3">
-        <v>1141101</v>
+        <v>1141102</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>1141101</v>
+        <v>1141102</v>
       </c>
       <c r="F3">
         <v>11411</v>
@@ -1843,36 +1843,36 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>136.88163700000001</v>
+        <v>136.90051700000001</v>
       </c>
       <c r="K3">
-        <v>35.170693999999997</v>
+        <v>35.142927999999998</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1141101</v>
+        <v>1141102</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1141105</v>
+        <v>1141103</v>
       </c>
       <c r="B4">
-        <v>1141105</v>
+        <v>1141103</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1141105</v>
+        <v>1141103</v>
       </c>
       <c r="F4">
         <v>11411</v>
@@ -1881,36 +1881,36 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>136.937161</v>
+        <v>136.91743600000001</v>
       </c>
       <c r="K4">
-        <v>35.191507999999999</v>
+        <v>35.156416</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1141105</v>
+        <v>1141103</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1141106</v>
+        <v>1141104</v>
       </c>
       <c r="B5">
-        <v>1141106</v>
+        <v>1141104</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>1141106</v>
+        <v>1141104</v>
       </c>
       <c r="F5">
         <v>11411</v>
@@ -1919,36 +1919,36 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>136.95120700000001</v>
+        <v>136.930665</v>
       </c>
       <c r="K5">
-        <v>35.207282999999997</v>
+        <v>35.170167999999997</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1141106</v>
+        <v>1141104</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1141102</v>
+        <v>1141105</v>
       </c>
       <c r="B6">
-        <v>1141102</v>
+        <v>1141105</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>1141102</v>
+        <v>1141105</v>
       </c>
       <c r="F6">
         <v>11411</v>
@@ -1957,36 +1957,36 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J6">
-        <v>136.90051700000001</v>
+        <v>136.937161</v>
       </c>
       <c r="K6">
-        <v>35.142927999999998</v>
+        <v>35.191507999999999</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1141102</v>
+        <v>1141105</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1141103</v>
+        <v>1141106</v>
       </c>
       <c r="B7">
-        <v>1141103</v>
+        <v>1141106</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>1141103</v>
+        <v>1141106</v>
       </c>
       <c r="F7">
         <v>11411</v>
@@ -1995,36 +1995,36 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>136.91743600000001</v>
+        <v>136.95120700000001</v>
       </c>
       <c r="K7">
-        <v>35.156416</v>
+        <v>35.207282999999997</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1141103</v>
+        <v>1141106</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1150241</v>
+        <v>1150228</v>
       </c>
       <c r="B8">
-        <v>1150241</v>
+        <v>1150228</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>1150241</v>
+        <v>1150228</v>
       </c>
       <c r="F8">
         <v>11502</v>
@@ -2036,33 +2036,33 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8">
-        <v>136.94824399999999</v>
+        <v>136.94024200000001</v>
       </c>
       <c r="K8">
-        <v>35.055402999999998</v>
+        <v>35.069243999999998</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1150227</v>
+        <v>1150228</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1150233</v>
+        <v>1150229</v>
       </c>
       <c r="B9">
-        <v>1141101</v>
+        <v>1150229</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>1141101</v>
+        <v>1150229</v>
       </c>
       <c r="F9">
         <v>11502</v>
@@ -2071,36 +2071,36 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>136.88163700000001</v>
+        <v>136.926321</v>
       </c>
       <c r="K9">
-        <v>35.170693999999997</v>
+        <v>35.095112999999998</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1150233</v>
+        <v>1150229</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1150228</v>
+        <v>1150230</v>
       </c>
       <c r="B10">
-        <v>1150228</v>
+        <v>1150230</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>1150228</v>
+        <v>1150230</v>
       </c>
       <c r="F10">
         <v>11502</v>
@@ -2109,36 +2109,36 @@
         <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>136.94024200000001</v>
+        <v>136.91050200000001</v>
       </c>
       <c r="K10">
-        <v>35.069243999999998</v>
+        <v>35.130028000000003</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1150228</v>
+        <v>1150230</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1150232</v>
+        <v>1150231</v>
       </c>
       <c r="B11">
-        <v>1150232</v>
+        <v>1141102</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>1150232</v>
+        <v>1141102</v>
       </c>
       <c r="F11">
         <v>11502</v>
@@ -2147,36 +2147,36 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>136.89102</v>
+        <v>136.90074999999999</v>
       </c>
       <c r="K11">
-        <v>35.146980999999997</v>
+        <v>35.143323000000002</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1150232</v>
+        <v>1150231</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1150230</v>
+        <v>1150232</v>
       </c>
       <c r="B12">
-        <v>1150230</v>
+        <v>1150232</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>1150230</v>
+        <v>1150232</v>
       </c>
       <c r="F12">
         <v>11502</v>
@@ -2185,36 +2185,36 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J12">
-        <v>136.91050200000001</v>
+        <v>136.89102</v>
       </c>
       <c r="K12">
-        <v>35.130028000000003</v>
+        <v>35.146980999999997</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1150230</v>
+        <v>1150232</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1150229</v>
+        <v>1150233</v>
       </c>
       <c r="B13">
-        <v>1150229</v>
+        <v>1141101</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>1150229</v>
+        <v>1141101</v>
       </c>
       <c r="F13">
         <v>11502</v>
@@ -2223,36 +2223,36 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J13">
-        <v>136.926321</v>
+        <v>136.88163700000001</v>
       </c>
       <c r="K13">
-        <v>35.095112999999998</v>
+        <v>35.170693999999997</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1150229</v>
+        <v>1150233</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1150231</v>
+        <v>1150241</v>
       </c>
       <c r="B14">
-        <v>1141102</v>
+        <v>1150241</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>1141102</v>
+        <v>1150241</v>
       </c>
       <c r="F14">
         <v>11502</v>
@@ -2261,36 +2261,36 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J14">
-        <v>136.90074999999999</v>
+        <v>136.94824399999999</v>
       </c>
       <c r="K14">
-        <v>35.143323000000002</v>
+        <v>35.055402999999998</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1150231</v>
+        <v>1150227</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1150802</v>
+        <v>1150801</v>
       </c>
       <c r="B15">
-        <v>1150802</v>
+        <v>1141101</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1150802</v>
+        <v>1141101</v>
       </c>
       <c r="F15">
         <v>11508</v>
@@ -2299,36 +2299,36 @@
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>136.85225800000001</v>
+        <v>136.88163700000001</v>
       </c>
       <c r="K15">
-        <v>35.148972999999998</v>
+        <v>35.170693999999997</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1150802</v>
+        <v>1150801</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1150801</v>
+        <v>1150802</v>
       </c>
       <c r="B16">
-        <v>1141101</v>
+        <v>1150802</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>1141101</v>
+        <v>1150802</v>
       </c>
       <c r="F16">
         <v>11508</v>
@@ -2337,22 +2337,22 @@
         <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J16">
-        <v>136.88163700000001</v>
+        <v>136.85225800000001</v>
       </c>
       <c r="K16">
-        <v>35.170693999999997</v>
+        <v>35.148972999999998</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1150801</v>
+        <v>1150802</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2433,16 +2433,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3000136</v>
+        <v>3000125</v>
       </c>
       <c r="B19">
-        <v>1141101</v>
+        <v>3000125</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>1141101</v>
+        <v>3000125</v>
       </c>
       <c r="F19">
         <v>30001</v>
@@ -2451,39 +2451,36 @@
         <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J19">
-        <v>136.884187</v>
+        <v>136.97108399999999</v>
       </c>
       <c r="K19">
-        <v>35.169252</v>
-      </c>
-      <c r="L19" s="1">
-        <v>15200</v>
+        <v>35.067686999999999</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3000136</v>
+        <v>3000125</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3000131</v>
+        <v>3000126</v>
       </c>
       <c r="B20">
-        <v>3000131</v>
+        <v>3000126</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>3000131</v>
+        <v>3000126</v>
       </c>
       <c r="F20">
         <v>30001</v>
@@ -2492,36 +2489,36 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J20">
-        <v>136.930387</v>
+        <v>136.96030099999999</v>
       </c>
       <c r="K20">
-        <v>35.114722</v>
+        <v>35.070552999999997</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3000131</v>
+        <v>3000126</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3000132</v>
+        <v>3000127</v>
       </c>
       <c r="B21">
-        <v>3000132</v>
+        <v>3000127</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>3000132</v>
+        <v>3000127</v>
       </c>
       <c r="F21">
         <v>30001</v>
@@ -2530,36 +2527,36 @@
         <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J21">
-        <v>136.919839</v>
+        <v>136.950096</v>
       </c>
       <c r="K21">
-        <v>35.120251000000003</v>
+        <v>35.079149000000001</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3000132</v>
+        <v>3000127</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3000135</v>
+        <v>3000128</v>
       </c>
       <c r="B22">
-        <v>3000135</v>
+        <v>3000128</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D22">
-        <v>3000135</v>
+        <v>3000128</v>
       </c>
       <c r="F22">
         <v>30001</v>
@@ -2568,36 +2565,36 @@
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J22">
-        <v>136.88846100000001</v>
+        <v>136.937378</v>
       </c>
       <c r="K22">
-        <v>35.152329999999999</v>
+        <v>35.087392000000001</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3000135</v>
+        <v>3000128</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3000126</v>
+        <v>3000129</v>
       </c>
       <c r="B23">
-        <v>3000126</v>
+        <v>3000129</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D23">
-        <v>3000126</v>
+        <v>3000129</v>
       </c>
       <c r="F23">
         <v>30001</v>
@@ -2606,36 +2603,36 @@
         <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J23">
-        <v>136.96030099999999</v>
+        <v>136.93340900000001</v>
       </c>
       <c r="K23">
-        <v>35.070552999999997</v>
+        <v>35.099198999999999</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3000126</v>
+        <v>3000129</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3000125</v>
+        <v>3000130</v>
       </c>
       <c r="B24">
-        <v>3000125</v>
+        <v>3000130</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>3000125</v>
+        <v>3000130</v>
       </c>
       <c r="F24">
         <v>30001</v>
@@ -2644,36 +2641,36 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J24">
-        <v>136.97108399999999</v>
+        <v>136.934586</v>
       </c>
       <c r="K24">
-        <v>35.067686999999999</v>
+        <v>35.106062000000001</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3000125</v>
+        <v>3000130</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3000128</v>
+        <v>3000131</v>
       </c>
       <c r="B25">
-        <v>3000128</v>
+        <v>3000131</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D25">
-        <v>3000128</v>
+        <v>3000131</v>
       </c>
       <c r="F25">
         <v>30001</v>
@@ -2682,36 +2679,36 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J25">
-        <v>136.937378</v>
+        <v>136.930387</v>
       </c>
       <c r="K25">
-        <v>35.087392000000001</v>
+        <v>35.114722</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3000128</v>
+        <v>3000131</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3000129</v>
+        <v>3000132</v>
       </c>
       <c r="B26">
-        <v>3000129</v>
+        <v>3000132</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D26">
-        <v>3000129</v>
+        <v>3000132</v>
       </c>
       <c r="F26">
         <v>30001</v>
@@ -2720,36 +2717,36 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J26">
-        <v>136.93340900000001</v>
+        <v>136.919839</v>
       </c>
       <c r="K26">
-        <v>35.099198999999999</v>
+        <v>35.120251000000003</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>3000129</v>
+        <v>3000132</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3000138</v>
+        <v>3000133</v>
       </c>
       <c r="B27">
-        <v>3000138</v>
+        <v>3000133</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>3000138</v>
+        <v>3000133</v>
       </c>
       <c r="F27">
         <v>30001</v>
@@ -2758,36 +2755,36 @@
         <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J27">
-        <v>136.87016800000001</v>
+        <v>136.912485</v>
       </c>
       <c r="K27">
-        <v>35.189807999999999</v>
+        <v>35.125857000000003</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>3000138</v>
+        <v>3000133</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>3000137</v>
+        <v>3000134</v>
       </c>
       <c r="B28">
-        <v>3000137</v>
+        <v>1141102</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>3000137</v>
+        <v>1141102</v>
       </c>
       <c r="F28">
         <v>30001</v>
@@ -2796,36 +2793,36 @@
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="J28">
-        <v>136.873051</v>
+        <v>136.90129999999999</v>
       </c>
       <c r="K28">
-        <v>35.183686999999999</v>
+        <v>35.142871</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>3000137</v>
+        <v>3000134</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3000130</v>
+        <v>3000135</v>
       </c>
       <c r="B29">
-        <v>3000130</v>
+        <v>3000135</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>3000130</v>
+        <v>3000135</v>
       </c>
       <c r="F29">
         <v>30001</v>
@@ -2834,36 +2831,36 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J29">
-        <v>136.934586</v>
+        <v>136.88846100000001</v>
       </c>
       <c r="K29">
-        <v>35.106062000000001</v>
+        <v>35.152329999999999</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>3000130</v>
+        <v>3000135</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>3000133</v>
+        <v>3000136</v>
       </c>
       <c r="B30">
-        <v>3000133</v>
+        <v>1141101</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D30">
-        <v>3000133</v>
+        <v>1141101</v>
       </c>
       <c r="F30">
         <v>30001</v>
@@ -2872,36 +2869,39 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J30">
-        <v>136.912485</v>
+        <v>136.884187</v>
       </c>
       <c r="K30">
-        <v>35.125857000000003</v>
+        <v>35.169252</v>
+      </c>
+      <c r="L30" s="1">
+        <v>15200</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>3000133</v>
+        <v>3000136</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>3000134</v>
+        <v>3000137</v>
       </c>
       <c r="B31">
-        <v>1141102</v>
+        <v>3000137</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>1141102</v>
+        <v>3000137</v>
       </c>
       <c r="F31">
         <v>30001</v>
@@ -2910,36 +2910,36 @@
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="J31">
-        <v>136.90129999999999</v>
+        <v>136.873051</v>
       </c>
       <c r="K31">
-        <v>35.142871</v>
+        <v>35.183686999999999</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>3000134</v>
+        <v>3000137</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3000127</v>
+        <v>3000138</v>
       </c>
       <c r="B32">
-        <v>3000127</v>
+        <v>3000138</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D32">
-        <v>3000127</v>
+        <v>3000138</v>
       </c>
       <c r="F32">
         <v>30001</v>
@@ -2948,22 +2948,22 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="J32">
-        <v>136.950096</v>
+        <v>136.87016800000001</v>
       </c>
       <c r="K32">
-        <v>35.079149000000001</v>
+        <v>35.189807999999999</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>3000127</v>
+        <v>3000138</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -3044,16 +3044,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>3000808</v>
+        <v>3000802</v>
       </c>
       <c r="B35">
-        <v>3000808</v>
+        <v>3000135</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D35">
-        <v>3000808</v>
+        <v>3000135</v>
       </c>
       <c r="F35">
         <v>30008</v>
@@ -3062,36 +3062,36 @@
         <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="J35">
-        <v>136.90931399999999</v>
+        <v>136.88846100000001</v>
       </c>
       <c r="K35">
-        <v>35.080267999999997</v>
+        <v>35.152329999999999</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>3000808</v>
+        <v>3000802</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>3000807</v>
+        <v>3000803</v>
       </c>
       <c r="B36">
-        <v>3000807</v>
+        <v>1141102</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>3000807</v>
+        <v>1141102</v>
       </c>
       <c r="F36">
         <v>30008</v>
@@ -3100,36 +3100,36 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="J36">
-        <v>136.912758</v>
+        <v>136.90129999999999</v>
       </c>
       <c r="K36">
-        <v>35.093257999999999</v>
+        <v>35.142871</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>3000807</v>
+        <v>3000803</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>3000802</v>
+        <v>3000804</v>
       </c>
       <c r="B37">
-        <v>3000135</v>
+        <v>3000133</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37">
-        <v>3000135</v>
+        <v>3000133</v>
       </c>
       <c r="F37">
         <v>30008</v>
@@ -3138,36 +3138,36 @@
         <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J37">
-        <v>136.88846100000001</v>
+        <v>136.912485</v>
       </c>
       <c r="K37">
-        <v>35.152329999999999</v>
+        <v>35.125857000000003</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>3000802</v>
+        <v>3000804</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3000809</v>
+        <v>3000805</v>
       </c>
       <c r="B38">
-        <v>3000809</v>
+        <v>3000805</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D38">
-        <v>3000809</v>
+        <v>3000805</v>
       </c>
       <c r="F38">
         <v>30008</v>
@@ -3176,36 +3176,36 @@
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J38">
-        <v>136.90912599999999</v>
+        <v>136.910877</v>
       </c>
       <c r="K38">
-        <v>35.072774000000003</v>
+        <v>35.113585999999998</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>3000809</v>
+        <v>3000805</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3000804</v>
+        <v>3000806</v>
       </c>
       <c r="B39">
-        <v>3000133</v>
+        <v>3000806</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D39">
-        <v>3000133</v>
+        <v>3000806</v>
       </c>
       <c r="F39">
         <v>30008</v>
@@ -3214,36 +3214,36 @@
         <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="J39">
-        <v>136.912485</v>
+        <v>136.90940900000001</v>
       </c>
       <c r="K39">
-        <v>35.125857000000003</v>
+        <v>35.105711999999997</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>3000804</v>
+        <v>3000806</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3000805</v>
+        <v>3000807</v>
       </c>
       <c r="B40">
-        <v>3000805</v>
+        <v>3000807</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>3000805</v>
+        <v>3000807</v>
       </c>
       <c r="F40">
         <v>30008</v>
@@ -3252,36 +3252,36 @@
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J40">
-        <v>136.910877</v>
+        <v>136.912758</v>
       </c>
       <c r="K40">
-        <v>35.113585999999998</v>
+        <v>35.093257999999999</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>3000805</v>
+        <v>3000807</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3000806</v>
+        <v>3000808</v>
       </c>
       <c r="B41">
-        <v>3000806</v>
+        <v>3000808</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D41">
-        <v>3000806</v>
+        <v>3000808</v>
       </c>
       <c r="F41">
         <v>30008</v>
@@ -3290,36 +3290,36 @@
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J41">
-        <v>136.90940900000001</v>
+        <v>136.90931399999999</v>
       </c>
       <c r="K41">
-        <v>35.105711999999997</v>
+        <v>35.080267999999997</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>3000806</v>
+        <v>3000808</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3000803</v>
+        <v>3000809</v>
       </c>
       <c r="B42">
-        <v>1141102</v>
+        <v>3000809</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>1141102</v>
+        <v>3000809</v>
       </c>
       <c r="F42">
         <v>30008</v>
@@ -3328,22 +3328,22 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="J42">
-        <v>136.90129999999999</v>
+        <v>136.90912599999999</v>
       </c>
       <c r="K42">
-        <v>35.142871</v>
+        <v>35.072774000000003</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>3000803</v>
+        <v>3000809</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -3424,16 +3424,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3001211</v>
+        <v>3001201</v>
       </c>
       <c r="B45">
-        <v>3001211</v>
+        <v>3001201</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="D45">
-        <v>3001211</v>
+        <v>3001201</v>
       </c>
       <c r="F45">
         <v>30012</v>
@@ -3442,36 +3442,36 @@
         <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="J45">
-        <v>136.98773499999999</v>
+        <v>136.908962</v>
       </c>
       <c r="K45">
-        <v>35.205098999999997</v>
+        <v>35.170566999999998</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>3001211</v>
+        <v>3001201</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3001206</v>
+        <v>3001202</v>
       </c>
       <c r="B46">
-        <v>1141105</v>
+        <v>3001202</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>1141105</v>
+        <v>3001202</v>
       </c>
       <c r="F46">
         <v>30012</v>
@@ -3480,36 +3480,36 @@
         <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="J46">
-        <v>136.93685500000001</v>
+        <v>136.908376</v>
       </c>
       <c r="K46">
-        <v>35.191600000000001</v>
+        <v>35.183726999999998</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>3001206</v>
+        <v>3001202</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>3001212</v>
+        <v>3001203</v>
       </c>
       <c r="B47">
-        <v>3001212</v>
+        <v>3001203</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>3001212</v>
+        <v>3001203</v>
       </c>
       <c r="F47">
         <v>30012</v>
@@ -3518,36 +3518,36 @@
         <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I47" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J47">
-        <v>136.996465</v>
+        <v>136.913814</v>
       </c>
       <c r="K47">
-        <v>35.206933999999997</v>
+        <v>35.187151999999998</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>3001212</v>
+        <v>3001203</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>3001208</v>
+        <v>3001204</v>
       </c>
       <c r="B48">
-        <v>3001208</v>
+        <v>3001204</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D48">
-        <v>3001208</v>
+        <v>3001204</v>
       </c>
       <c r="F48">
         <v>30012</v>
@@ -3556,36 +3556,36 @@
         <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J48">
-        <v>136.957843</v>
+        <v>136.91927999999999</v>
       </c>
       <c r="K48">
-        <v>35.196258</v>
+        <v>35.187956999999997</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>3001208</v>
+        <v>3001204</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>3001210</v>
+        <v>3001205</v>
       </c>
       <c r="B49">
-        <v>3001210</v>
+        <v>3001205</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D49">
-        <v>3001210</v>
+        <v>3001205</v>
       </c>
       <c r="F49">
         <v>30012</v>
@@ -3594,36 +3594,36 @@
         <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I49" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J49">
-        <v>136.97576900000001</v>
+        <v>136.92965699999999</v>
       </c>
       <c r="K49">
-        <v>35.200215999999998</v>
+        <v>35.188299000000001</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>3001210</v>
+        <v>3001205</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>3001204</v>
+        <v>3001206</v>
       </c>
       <c r="B50">
-        <v>3001204</v>
+        <v>1141105</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>3001204</v>
+        <v>1141105</v>
       </c>
       <c r="F50">
         <v>30012</v>
@@ -3632,36 +3632,36 @@
         <v>23</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J50">
-        <v>136.91927999999999</v>
+        <v>136.93685500000001</v>
       </c>
       <c r="K50">
-        <v>35.187956999999997</v>
+        <v>35.191600000000001</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>3001204</v>
+        <v>3001206</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>3001202</v>
+        <v>3001207</v>
       </c>
       <c r="B51">
-        <v>3001202</v>
+        <v>3001207</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D51">
-        <v>3001202</v>
+        <v>3001207</v>
       </c>
       <c r="F51">
         <v>30012</v>
@@ -3670,36 +3670,36 @@
         <v>23</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I51" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J51">
-        <v>136.908376</v>
+        <v>136.947802</v>
       </c>
       <c r="K51">
-        <v>35.183726999999998</v>
+        <v>35.193699000000002</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>3001202</v>
+        <v>3001207</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>3001201</v>
+        <v>3001208</v>
       </c>
       <c r="B52">
-        <v>3001201</v>
+        <v>3001208</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D52">
-        <v>3001201</v>
+        <v>3001208</v>
       </c>
       <c r="F52">
         <v>30012</v>
@@ -3708,36 +3708,36 @@
         <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I52" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J52">
-        <v>136.908962</v>
+        <v>136.957843</v>
       </c>
       <c r="K52">
-        <v>35.170566999999998</v>
+        <v>35.196258</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>3001201</v>
+        <v>3001208</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>3001205</v>
+        <v>3001209</v>
       </c>
       <c r="B53">
-        <v>3001205</v>
+        <v>3001209</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D53">
-        <v>3001205</v>
+        <v>3001209</v>
       </c>
       <c r="F53">
         <v>30012</v>
@@ -3746,36 +3746,36 @@
         <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I53" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J53">
-        <v>136.92965699999999</v>
+        <v>136.965048</v>
       </c>
       <c r="K53">
-        <v>35.188299000000001</v>
+        <v>35.197221999999996</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>3001205</v>
+        <v>3001209</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>3001203</v>
+        <v>3001210</v>
       </c>
       <c r="B54">
-        <v>3001203</v>
+        <v>3001210</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="D54">
-        <v>3001203</v>
+        <v>3001210</v>
       </c>
       <c r="F54">
         <v>30012</v>
@@ -3784,36 +3784,36 @@
         <v>23</v>
       </c>
       <c r="H54" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J54">
-        <v>136.913814</v>
+        <v>136.97576900000001</v>
       </c>
       <c r="K54">
-        <v>35.187151999999998</v>
+        <v>35.200215999999998</v>
       </c>
       <c r="N54">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>3001203</v>
+        <v>3001210</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>3001209</v>
+        <v>3001211</v>
       </c>
       <c r="B55">
-        <v>3001209</v>
+        <v>3001211</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="D55">
-        <v>3001209</v>
+        <v>3001211</v>
       </c>
       <c r="F55">
         <v>30012</v>
@@ -3822,36 +3822,36 @@
         <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J55">
-        <v>136.965048</v>
+        <v>136.98773499999999</v>
       </c>
       <c r="K55">
-        <v>35.197221999999996</v>
+        <v>35.205098999999997</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>3001209</v>
+        <v>3001211</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>3001207</v>
+        <v>3001212</v>
       </c>
       <c r="B56">
-        <v>3001207</v>
+        <v>3001212</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D56">
-        <v>3001207</v>
+        <v>3001212</v>
       </c>
       <c r="F56">
         <v>30012</v>
@@ -3860,36 +3860,36 @@
         <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J56">
-        <v>136.947802</v>
+        <v>136.996465</v>
       </c>
       <c r="K56">
-        <v>35.193699000000002</v>
+        <v>35.206933999999997</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>3001207</v>
+        <v>3001212</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>3001506</v>
+        <v>3001501</v>
       </c>
       <c r="B57">
-        <v>3001506</v>
+        <v>1141101</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D57">
-        <v>3001506</v>
+        <v>1141101</v>
       </c>
       <c r="F57">
         <v>30015</v>
@@ -3898,36 +3898,36 @@
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="I57" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="J57">
-        <v>136.87694099999999</v>
+        <v>136.884187</v>
       </c>
       <c r="K57">
-        <v>35.223481999999997</v>
+        <v>35.169252</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>3001506</v>
+        <v>3001501</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>3001505</v>
+        <v>3001502</v>
       </c>
       <c r="B58">
-        <v>3001505</v>
+        <v>3000137</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="D58">
-        <v>3001505</v>
+        <v>3000137</v>
       </c>
       <c r="F58">
         <v>30015</v>
@@ -3936,36 +3936,36 @@
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="J58">
-        <v>136.87677199999999</v>
+        <v>136.873051</v>
       </c>
       <c r="K58">
-        <v>35.214646999999999</v>
+        <v>35.183686999999999</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>3001505</v>
+        <v>3001502</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>3001501</v>
+        <v>3001503</v>
       </c>
       <c r="B59">
-        <v>1141101</v>
+        <v>3000138</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59">
-        <v>1141101</v>
+        <v>3000138</v>
       </c>
       <c r="F59">
         <v>30015</v>
@@ -3974,36 +3974,36 @@
         <v>23</v>
       </c>
       <c r="H59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J59">
-        <v>136.884187</v>
+        <v>136.87016800000001</v>
       </c>
       <c r="K59">
-        <v>35.169252</v>
+        <v>35.189807999999999</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>3001501</v>
+        <v>3001503</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3001503</v>
+        <v>3001505</v>
       </c>
       <c r="B60">
-        <v>3000138</v>
+        <v>3001505</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D60">
-        <v>3000138</v>
+        <v>3001505</v>
       </c>
       <c r="F60">
         <v>30015</v>
@@ -4012,36 +4012,36 @@
         <v>23</v>
       </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="J60">
-        <v>136.87016800000001</v>
+        <v>136.87677199999999</v>
       </c>
       <c r="K60">
-        <v>35.189807999999999</v>
+        <v>35.214646999999999</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>3001503</v>
+        <v>3001505</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>3001502</v>
+        <v>3001506</v>
       </c>
       <c r="B61">
-        <v>3000137</v>
+        <v>3001506</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="D61">
-        <v>3000137</v>
+        <v>3001506</v>
       </c>
       <c r="F61">
         <v>30015</v>
@@ -4050,22 +4050,22 @@
         <v>23</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="J61">
-        <v>136.873051</v>
+        <v>136.87694099999999</v>
       </c>
       <c r="K61">
-        <v>35.183686999999999</v>
+        <v>35.223481999999997</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>3001502</v>
+        <v>3001506</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -4146,16 +4146,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3102706</v>
+        <v>3102701</v>
       </c>
       <c r="B64">
-        <v>3102706</v>
+        <v>1141101</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D64">
-        <v>3102706</v>
+        <v>1141101</v>
       </c>
       <c r="F64">
         <v>31027</v>
@@ -4164,36 +4164,36 @@
         <v>23</v>
       </c>
       <c r="H64" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J64">
-        <v>136.82784100000001</v>
+        <v>136.88385500000001</v>
       </c>
       <c r="K64">
-        <v>35.140183</v>
+        <v>35.169190999999998</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>3102706</v>
+        <v>3102701</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3102707</v>
+        <v>3102702</v>
       </c>
       <c r="B65">
-        <v>3102707</v>
+        <v>3102702</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="D65">
-        <v>3102707</v>
+        <v>3102702</v>
       </c>
       <c r="F65">
         <v>31027</v>
@@ -4202,36 +4202,36 @@
         <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I65" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J65">
-        <v>136.807624</v>
+        <v>136.87979300000001</v>
       </c>
       <c r="K65">
-        <v>35.132731</v>
+        <v>35.161354000000003</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>3102707</v>
+        <v>3102702</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3102704</v>
+        <v>3102703</v>
       </c>
       <c r="B66">
-        <v>3102704</v>
+        <v>3102703</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>3102704</v>
+        <v>3102703</v>
       </c>
       <c r="F66">
         <v>31027</v>
@@ -4240,36 +4240,36 @@
         <v>23</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J66">
-        <v>136.86389500000001</v>
+        <v>136.870621</v>
       </c>
       <c r="K66">
-        <v>35.152934999999999</v>
+        <v>35.156185000000001</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>3102704</v>
+        <v>3102703</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3102702</v>
+        <v>3102704</v>
       </c>
       <c r="B67">
-        <v>3102702</v>
+        <v>3102704</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D67">
-        <v>3102702</v>
+        <v>3102704</v>
       </c>
       <c r="F67">
         <v>31027</v>
@@ -4278,22 +4278,22 @@
         <v>23</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J67">
-        <v>136.87979300000001</v>
+        <v>136.86389500000001</v>
       </c>
       <c r="K67">
-        <v>35.161354000000003</v>
+        <v>35.152934999999999</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>3102702</v>
+        <v>3102704</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -4336,16 +4336,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3102701</v>
+        <v>3102706</v>
       </c>
       <c r="B69">
-        <v>1141101</v>
+        <v>3102706</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D69">
-        <v>1141101</v>
+        <v>3102706</v>
       </c>
       <c r="F69">
         <v>31027</v>
@@ -4354,36 +4354,36 @@
         <v>23</v>
       </c>
       <c r="H69" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="J69">
-        <v>136.88385500000001</v>
+        <v>136.82784100000001</v>
       </c>
       <c r="K69">
-        <v>35.169190999999998</v>
+        <v>35.140183</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>3102701</v>
+        <v>3102706</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>3102703</v>
+        <v>3102707</v>
       </c>
       <c r="B70">
-        <v>3102703</v>
+        <v>3102707</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>3102703</v>
+        <v>3102707</v>
       </c>
       <c r="F70">
         <v>31027</v>
@@ -4392,36 +4392,36 @@
         <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="I70" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="J70">
-        <v>136.870621</v>
+        <v>136.807624</v>
       </c>
       <c r="K70">
-        <v>35.156185000000001</v>
+        <v>35.132731</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>3102703</v>
+        <v>3102707</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>9950902</v>
+        <v>9950901</v>
       </c>
       <c r="B71">
-        <v>3102702</v>
+        <v>1141101</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>3102702</v>
+        <v>1141101</v>
       </c>
       <c r="F71">
         <v>99509</v>
@@ -4430,36 +4430,36 @@
         <v>23</v>
       </c>
       <c r="H71" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="J71">
-        <v>136.88181499999999</v>
+        <v>136.882417</v>
       </c>
       <c r="K71">
-        <v>35.161745000000003</v>
+        <v>35.168733000000003</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>9950902</v>
+        <v>9950901</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>9950906</v>
+        <v>9950902</v>
       </c>
       <c r="B72">
-        <v>9950906</v>
+        <v>3102702</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D72">
-        <v>9950906</v>
+        <v>3102702</v>
       </c>
       <c r="F72">
         <v>99509</v>
@@ -4468,36 +4468,36 @@
         <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J72">
-        <v>136.861346</v>
+        <v>136.88181499999999</v>
       </c>
       <c r="K72">
-        <v>35.125143999999999</v>
+        <v>35.161745000000003</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>9950906</v>
+        <v>9950902</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>9950905</v>
+        <v>9950903</v>
       </c>
       <c r="B73">
-        <v>9950905</v>
+        <v>9950903</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D73">
-        <v>9950905</v>
+        <v>9950903</v>
       </c>
       <c r="F73">
         <v>99509</v>
@@ -4506,36 +4506,36 @@
         <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I73" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J73">
-        <v>136.861771</v>
+        <v>136.86133100000001</v>
       </c>
       <c r="K73">
-        <v>35.131706999999999</v>
+        <v>35.149209999999997</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>9950905</v>
+        <v>9950903</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>9950901</v>
+        <v>9950904</v>
       </c>
       <c r="B74">
-        <v>1141101</v>
+        <v>9950904</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="D74">
-        <v>1141101</v>
+        <v>9950904</v>
       </c>
       <c r="F74">
         <v>99509</v>
@@ -4544,36 +4544,36 @@
         <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="J74">
-        <v>136.882417</v>
+        <v>136.86167599999999</v>
       </c>
       <c r="K74">
-        <v>35.168733000000003</v>
+        <v>35.139991999999999</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>9950901</v>
+        <v>9950904</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>9950907</v>
+        <v>9950905</v>
       </c>
       <c r="B75">
-        <v>9950907</v>
+        <v>9950905</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D75">
-        <v>9950907</v>
+        <v>9950905</v>
       </c>
       <c r="F75">
         <v>99509</v>
@@ -4582,36 +4582,36 @@
         <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I75" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J75">
-        <v>136.862739</v>
+        <v>136.861771</v>
       </c>
       <c r="K75">
-        <v>35.114528999999997</v>
+        <v>35.131706999999999</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>9950907</v>
+        <v>9950905</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>9950903</v>
+        <v>9950906</v>
       </c>
       <c r="B76">
-        <v>9950903</v>
+        <v>9950906</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="D76">
-        <v>9950903</v>
+        <v>9950906</v>
       </c>
       <c r="F76">
         <v>99509</v>
@@ -4620,36 +4620,36 @@
         <v>23</v>
       </c>
       <c r="H76" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="I76" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J76">
-        <v>136.86133100000001</v>
+        <v>136.861346</v>
       </c>
       <c r="K76">
-        <v>35.149209999999997</v>
+        <v>35.125143999999999</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>9950903</v>
+        <v>9950906</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>9950909</v>
+        <v>9950907</v>
       </c>
       <c r="B77">
-        <v>9950909</v>
+        <v>9950907</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D77">
-        <v>9950909</v>
+        <v>9950907</v>
       </c>
       <c r="F77">
         <v>99509</v>
@@ -4658,36 +4658,36 @@
         <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I77" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J77">
-        <v>136.863203</v>
+        <v>136.862739</v>
       </c>
       <c r="K77">
-        <v>35.091417999999997</v>
+        <v>35.114528999999997</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>9950909</v>
+        <v>9950907</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>9950904</v>
+        <v>9950908</v>
       </c>
       <c r="B78">
-        <v>9950904</v>
+        <v>9950908</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D78">
-        <v>9950904</v>
+        <v>9950908</v>
       </c>
       <c r="F78">
         <v>99509</v>
@@ -4696,36 +4696,36 @@
         <v>23</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="J78">
-        <v>136.86167599999999</v>
+        <v>136.86114799999999</v>
       </c>
       <c r="K78">
-        <v>35.139991999999999</v>
+        <v>35.104568999999998</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>9950904</v>
+        <v>9950908</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9950908</v>
+        <v>9950909</v>
       </c>
       <c r="B79">
-        <v>9950908</v>
+        <v>9950909</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D79">
-        <v>9950908</v>
+        <v>9950909</v>
       </c>
       <c r="F79">
         <v>99509</v>
@@ -4734,22 +4734,22 @@
         <v>23</v>
       </c>
       <c r="H79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J79">
-        <v>136.86114799999999</v>
+        <v>136.863203</v>
       </c>
       <c r="K79">
-        <v>35.104568999999998</v>
+        <v>35.091417999999997</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>9950908</v>
+        <v>9950909</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4944,16 +4944,16 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>9951319</v>
+        <v>9951301</v>
       </c>
       <c r="B85">
-        <v>9951319</v>
+        <v>9951301</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="D85">
-        <v>9951319</v>
+        <v>9951301</v>
       </c>
       <c r="F85">
         <v>99513</v>
@@ -4962,36 +4962,36 @@
         <v>23</v>
       </c>
       <c r="H85" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="J85">
-        <v>136.99592699999999</v>
+        <v>136.853466</v>
       </c>
       <c r="K85">
-        <v>35.168230999999999</v>
+        <v>35.139161000000001</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>9951319</v>
+        <v>9951301</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>9951320</v>
+        <v>9951302</v>
       </c>
       <c r="B86">
-        <v>9951320</v>
+        <v>1150802</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="D86">
-        <v>9951320</v>
+        <v>1150802</v>
       </c>
       <c r="F86">
         <v>99513</v>
@@ -5000,36 +5000,36 @@
         <v>23</v>
       </c>
       <c r="H86" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="I86" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="J86">
-        <v>137.007081</v>
+        <v>136.85327799999999</v>
       </c>
       <c r="K86">
-        <v>35.173656000000001</v>
+        <v>35.148986000000001</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>9951320</v>
+        <v>9951302</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>9951304</v>
+        <v>9951303</v>
       </c>
       <c r="B87">
-        <v>9951304</v>
+        <v>9951303</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87">
-        <v>9951304</v>
+        <v>9951303</v>
       </c>
       <c r="F87">
         <v>99513</v>
@@ -5038,36 +5038,36 @@
         <v>23</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J87">
-        <v>136.85505599999999</v>
+        <v>136.85440600000001</v>
       </c>
       <c r="K87">
-        <v>35.167830000000002</v>
+        <v>35.158459000000001</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>9951304</v>
+        <v>9951303</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>9951305</v>
+        <v>9951304</v>
       </c>
       <c r="B88">
-        <v>9951305</v>
+        <v>9951304</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D88">
-        <v>9951305</v>
+        <v>9951304</v>
       </c>
       <c r="F88">
         <v>99513</v>
@@ -5076,36 +5076,36 @@
         <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J88">
-        <v>136.86173299999999</v>
+        <v>136.85505599999999</v>
       </c>
       <c r="K88">
-        <v>35.172384999999998</v>
+        <v>35.167830000000002</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88">
-        <v>9951305</v>
+        <v>9951304</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>9951307</v>
+        <v>9951305</v>
       </c>
       <c r="B89">
-        <v>9951307</v>
+        <v>9951305</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D89">
-        <v>9951307</v>
+        <v>9951305</v>
       </c>
       <c r="F89">
         <v>99513</v>
@@ -5114,36 +5114,36 @@
         <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I89" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J89">
-        <v>136.876756</v>
+        <v>136.86173299999999</v>
       </c>
       <c r="K89">
-        <v>35.177526</v>
+        <v>35.172384999999998</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89">
-        <v>9951307</v>
+        <v>9951305</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>9951313</v>
+        <v>9951306</v>
       </c>
       <c r="B90">
-        <v>9951313</v>
+        <v>9951306</v>
       </c>
       <c r="C90" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D90">
-        <v>9951313</v>
+        <v>9951306</v>
       </c>
       <c r="F90">
         <v>99513</v>
@@ -5152,36 +5152,36 @@
         <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="I90" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="J90">
-        <v>136.937331</v>
+        <v>136.866782</v>
       </c>
       <c r="K90">
-        <v>35.169919</v>
+        <v>35.177135</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>9951313</v>
+        <v>9951306</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>9951309</v>
+        <v>9951307</v>
       </c>
       <c r="B91">
-        <v>9951309</v>
+        <v>9951307</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D91">
-        <v>9951309</v>
+        <v>9951307</v>
       </c>
       <c r="F91">
         <v>99513</v>
@@ -5190,36 +5190,36 @@
         <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J91">
-        <v>136.89742699999999</v>
+        <v>136.876756</v>
       </c>
       <c r="K91">
-        <v>35.169272999999997</v>
+        <v>35.177526</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>9951309</v>
+        <v>9951307</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>9951302</v>
+        <v>9951308</v>
       </c>
       <c r="B92">
-        <v>1150802</v>
+        <v>1141101</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>1150802</v>
+        <v>1141101</v>
       </c>
       <c r="F92">
         <v>99513</v>
@@ -5228,36 +5228,36 @@
         <v>23</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I92" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J92">
-        <v>136.85327799999999</v>
+        <v>136.883925</v>
       </c>
       <c r="K92">
-        <v>35.148986000000001</v>
+        <v>35.171252000000003</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>9951302</v>
+        <v>9951308</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>9951312</v>
+        <v>9951309</v>
       </c>
       <c r="B93">
-        <v>1141104</v>
+        <v>9951309</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="D93">
-        <v>1141104</v>
+        <v>9951309</v>
       </c>
       <c r="F93">
         <v>99513</v>
@@ -5266,36 +5266,36 @@
         <v>23</v>
       </c>
       <c r="H93" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="I93" t="s">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="J93">
-        <v>136.93040199999999</v>
+        <v>136.89742699999999</v>
       </c>
       <c r="K93">
-        <v>35.170625000000001</v>
+        <v>35.169272999999997</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>9951312</v>
+        <v>9951309</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>9951308</v>
+        <v>9951310</v>
       </c>
       <c r="B94">
-        <v>1141101</v>
+        <v>3001201</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="D94">
-        <v>1141101</v>
+        <v>3001201</v>
       </c>
       <c r="F94">
         <v>99513</v>
@@ -5304,36 +5304,36 @@
         <v>23</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="J94">
-        <v>136.883925</v>
+        <v>136.90803099999999</v>
       </c>
       <c r="K94">
-        <v>35.171252000000003</v>
+        <v>35.169989999999999</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>9951308</v>
+        <v>9951310</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>9951303</v>
+        <v>9951311</v>
       </c>
       <c r="B95">
-        <v>9951303</v>
+        <v>9951311</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D95">
-        <v>9951303</v>
+        <v>9951311</v>
       </c>
       <c r="F95">
         <v>99513</v>
@@ -5342,36 +5342,36 @@
         <v>23</v>
       </c>
       <c r="H95" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I95" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="J95">
-        <v>136.85440600000001</v>
+        <v>136.920377</v>
       </c>
       <c r="K95">
-        <v>35.158459000000001</v>
+        <v>35.170729000000001</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>9951303</v>
+        <v>9951311</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>9951311</v>
+        <v>9951312</v>
       </c>
       <c r="B96">
-        <v>9951311</v>
+        <v>1141104</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="D96">
-        <v>9951311</v>
+        <v>1141104</v>
       </c>
       <c r="F96">
         <v>99513</v>
@@ -5380,36 +5380,36 @@
         <v>23</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="J96">
-        <v>136.920377</v>
+        <v>136.93040199999999</v>
       </c>
       <c r="K96">
-        <v>35.170729000000001</v>
+        <v>35.170625000000001</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>9951311</v>
+        <v>9951312</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>9951318</v>
+        <v>9951313</v>
       </c>
       <c r="B97">
-        <v>9951318</v>
+        <v>9951313</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D97">
-        <v>9951318</v>
+        <v>9951313</v>
       </c>
       <c r="F97">
         <v>99513</v>
@@ -5418,36 +5418,36 @@
         <v>23</v>
       </c>
       <c r="H97" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="I97" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J97">
-        <v>136.985095</v>
+        <v>136.937331</v>
       </c>
       <c r="K97">
-        <v>35.162399000000001</v>
+        <v>35.169919</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>9951318</v>
+        <v>9951313</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>9951316</v>
+        <v>9951314</v>
       </c>
       <c r="B98">
-        <v>9951316</v>
+        <v>9951314</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="D98">
-        <v>9951316</v>
+        <v>9951314</v>
       </c>
       <c r="F98">
         <v>99513</v>
@@ -5456,36 +5456,36 @@
         <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I98" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J98">
-        <v>136.96344099999999</v>
+        <v>136.94648599999999</v>
       </c>
       <c r="K98">
-        <v>35.163922999999997</v>
+        <v>35.167675000000003</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>9951316</v>
+        <v>9951314</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>9951321</v>
+        <v>9951315</v>
       </c>
       <c r="B99">
-        <v>9951321</v>
+        <v>9951315</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="D99">
-        <v>9951321</v>
+        <v>9951315</v>
       </c>
       <c r="F99">
         <v>99513</v>
@@ -5494,36 +5494,36 @@
         <v>23</v>
       </c>
       <c r="H99" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I99" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J99">
-        <v>137.01342500000001</v>
+        <v>136.95370800000001</v>
       </c>
       <c r="K99">
-        <v>35.175452999999997</v>
+        <v>35.166564999999999</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>9951321</v>
+        <v>9951315</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>9951306</v>
+        <v>9951316</v>
       </c>
       <c r="B100">
-        <v>9951306</v>
+        <v>9951316</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="D100">
-        <v>9951306</v>
+        <v>9951316</v>
       </c>
       <c r="F100">
         <v>99513</v>
@@ -5532,22 +5532,22 @@
         <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="I100" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="J100">
-        <v>136.866782</v>
+        <v>136.96344099999999</v>
       </c>
       <c r="K100">
-        <v>35.177135</v>
+        <v>35.163922999999997</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100">
-        <v>9951306</v>
+        <v>9951316</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -5590,16 +5590,16 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>9951310</v>
+        <v>9951318</v>
       </c>
       <c r="B102">
-        <v>3001201</v>
+        <v>9951318</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D102">
-        <v>3001201</v>
+        <v>9951318</v>
       </c>
       <c r="F102">
         <v>99513</v>
@@ -5608,36 +5608,36 @@
         <v>23</v>
       </c>
       <c r="H102" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I102" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J102">
-        <v>136.90803099999999</v>
+        <v>136.985095</v>
       </c>
       <c r="K102">
-        <v>35.169989999999999</v>
+        <v>35.162399000000001</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>9951310</v>
+        <v>9951318</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>9951314</v>
+        <v>9951319</v>
       </c>
       <c r="B103">
-        <v>9951314</v>
+        <v>9951319</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D103">
-        <v>9951314</v>
+        <v>9951319</v>
       </c>
       <c r="F103">
         <v>99513</v>
@@ -5646,36 +5646,36 @@
         <v>23</v>
       </c>
       <c r="H103" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="I103" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J103">
-        <v>136.94648599999999</v>
+        <v>136.99592699999999</v>
       </c>
       <c r="K103">
-        <v>35.167675000000003</v>
+        <v>35.168230999999999</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103">
-        <v>9951314</v>
+        <v>9951319</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>9951322</v>
+        <v>9951320</v>
       </c>
       <c r="B104">
-        <v>9951201</v>
+        <v>9951320</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="D104">
-        <v>9951201</v>
+        <v>9951320</v>
       </c>
       <c r="F104">
         <v>99513</v>
@@ -5684,36 +5684,36 @@
         <v>23</v>
       </c>
       <c r="H104" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I104" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="J104">
-        <v>137.02136100000001</v>
+        <v>137.007081</v>
       </c>
       <c r="K104">
-        <v>35.182414999999999</v>
+        <v>35.173656000000001</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>9951322</v>
+        <v>9951320</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>9951315</v>
+        <v>9951321</v>
       </c>
       <c r="B105">
-        <v>9951315</v>
+        <v>9951321</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="D105">
-        <v>9951315</v>
+        <v>9951321</v>
       </c>
       <c r="F105">
         <v>99513</v>
@@ -5722,36 +5722,36 @@
         <v>23</v>
       </c>
       <c r="H105" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="I105" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="J105">
-        <v>136.95370800000001</v>
+        <v>137.01342500000001</v>
       </c>
       <c r="K105">
-        <v>35.166564999999999</v>
+        <v>35.175452999999997</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>9951315</v>
+        <v>9951321</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>9951301</v>
+        <v>9951322</v>
       </c>
       <c r="B106">
-        <v>9951301</v>
+        <v>9951201</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="D106">
-        <v>9951301</v>
+        <v>9951201</v>
       </c>
       <c r="F106">
         <v>99513</v>
@@ -5760,22 +5760,22 @@
         <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I106" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J106">
-        <v>136.853466</v>
+        <v>137.02136100000001</v>
       </c>
       <c r="K106">
-        <v>35.139161000000001</v>
+        <v>35.182414999999999</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>9951301</v>
+        <v>9951322</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -5818,16 +5818,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>9951411</v>
+        <v>9951402</v>
       </c>
       <c r="B108">
-        <v>9951411</v>
+        <v>1141105</v>
       </c>
       <c r="C108" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="D108">
-        <v>9951411</v>
+        <v>1141105</v>
       </c>
       <c r="F108">
         <v>99514</v>
@@ -5836,36 +5836,36 @@
         <v>23</v>
       </c>
       <c r="H108" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="I108" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="J108">
-        <v>136.90681499999999</v>
+        <v>136.93720400000001</v>
       </c>
       <c r="K108">
-        <v>35.157477</v>
+        <v>35.192385000000002</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108">
-        <v>9951411</v>
+        <v>9951402</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>9951408</v>
+        <v>9951403</v>
       </c>
       <c r="B109">
-        <v>9951408</v>
+        <v>9951403</v>
       </c>
       <c r="C109" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D109">
-        <v>9951408</v>
+        <v>9951403</v>
       </c>
       <c r="F109">
         <v>99514</v>
@@ -5874,36 +5874,36 @@
         <v>23</v>
       </c>
       <c r="H109" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="I109" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="J109">
-        <v>136.90815599999999</v>
+        <v>136.92978400000001</v>
       </c>
       <c r="K109">
-        <v>35.173783999999998</v>
+        <v>35.195934000000001</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
       <c r="O109">
-        <v>9951408</v>
+        <v>9951403</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>9951416</v>
+        <v>9951404</v>
       </c>
       <c r="B110">
-        <v>9951416</v>
+        <v>9951404</v>
       </c>
       <c r="C110" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D110">
-        <v>9951416</v>
+        <v>9951404</v>
       </c>
       <c r="F110">
         <v>99514</v>
@@ -5912,36 +5912,36 @@
         <v>23</v>
       </c>
       <c r="H110" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="I110" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J110">
-        <v>136.91038</v>
+        <v>136.92121</v>
       </c>
       <c r="K110">
-        <v>35.120735000000003</v>
+        <v>35.196280999999999</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110">
-        <v>9951416</v>
+        <v>9951404</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>9951422</v>
+        <v>9951405</v>
       </c>
       <c r="B111">
-        <v>9951422</v>
+        <v>9951405</v>
       </c>
       <c r="C111" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="D111">
-        <v>9951422</v>
+        <v>9951405</v>
       </c>
       <c r="F111">
         <v>99514</v>
@@ -5950,36 +5950,36 @@
         <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="I111" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="J111">
-        <v>136.96403599999999</v>
+        <v>136.910178</v>
       </c>
       <c r="K111">
-        <v>35.136946000000002</v>
+        <v>35.197183000000003</v>
       </c>
       <c r="N111">
         <v>0</v>
       </c>
       <c r="O111">
-        <v>9951422</v>
+        <v>9951405</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>9951423</v>
+        <v>9951406</v>
       </c>
       <c r="B112">
-        <v>9951423</v>
+        <v>9951406</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="D112">
-        <v>9951423</v>
+        <v>9951406</v>
       </c>
       <c r="F112">
         <v>99514</v>
@@ -5988,36 +5988,36 @@
         <v>23</v>
       </c>
       <c r="H112" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="I112" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="J112">
-        <v>136.96500800000001</v>
+        <v>136.90474800000001</v>
       </c>
       <c r="K112">
-        <v>35.144556000000001</v>
+        <v>35.190528</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112">
-        <v>9951423</v>
+        <v>9951406</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>9951424</v>
+        <v>9951407</v>
       </c>
       <c r="B113">
-        <v>9951424</v>
+        <v>9951407</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="D113">
-        <v>9951424</v>
+        <v>9951407</v>
       </c>
       <c r="F113">
         <v>99514</v>
@@ -6026,36 +6026,36 @@
         <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="I113" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="J113">
-        <v>136.96657999999999</v>
+        <v>136.90537900000001</v>
       </c>
       <c r="K113">
-        <v>35.154260999999998</v>
+        <v>35.181559999999998</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113">
-        <v>9951424</v>
+        <v>9951407</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>9951406</v>
+        <v>9951408</v>
       </c>
       <c r="B114">
-        <v>9951406</v>
+        <v>9951408</v>
       </c>
       <c r="C114" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D114">
-        <v>9951406</v>
+        <v>9951408</v>
       </c>
       <c r="F114">
         <v>99514</v>
@@ -6064,36 +6064,36 @@
         <v>23</v>
       </c>
       <c r="H114" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="I114" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J114">
-        <v>136.90474800000001</v>
+        <v>136.90815599999999</v>
       </c>
       <c r="K114">
-        <v>35.190528</v>
+        <v>35.173783999999998</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114">
-        <v>9951406</v>
+        <v>9951408</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>9951417</v>
+        <v>9951409</v>
       </c>
       <c r="B115">
-        <v>9951417</v>
+        <v>3001201</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="D115">
-        <v>9951417</v>
+        <v>3001201</v>
       </c>
       <c r="F115">
         <v>99514</v>
@@ -6102,36 +6102,36 @@
         <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="I115" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="J115">
-        <v>136.921685</v>
+        <v>136.90803099999999</v>
       </c>
       <c r="K115">
-        <v>35.116644000000001</v>
+        <v>35.169989999999999</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>9951417</v>
+        <v>9951409</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>9951402</v>
+        <v>9951410</v>
       </c>
       <c r="B116">
-        <v>1141105</v>
+        <v>9951410</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="D116">
-        <v>1141105</v>
+        <v>9951410</v>
       </c>
       <c r="F116">
         <v>99514</v>
@@ -6140,36 +6140,36 @@
         <v>23</v>
       </c>
       <c r="H116" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="J116">
-        <v>136.93720400000001</v>
+        <v>136.90898999999999</v>
       </c>
       <c r="K116">
-        <v>35.192385000000002</v>
+        <v>35.163784999999997</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116">
-        <v>9951402</v>
+        <v>9951410</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>9951418</v>
+        <v>9951411</v>
       </c>
       <c r="B117">
-        <v>9951418</v>
+        <v>9951411</v>
       </c>
       <c r="C117" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D117">
-        <v>9951418</v>
+        <v>9951411</v>
       </c>
       <c r="F117">
         <v>99514</v>
@@ -6178,36 +6178,36 @@
         <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="I117" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="J117">
-        <v>136.92954499999999</v>
+        <v>136.90681499999999</v>
       </c>
       <c r="K117">
-        <v>35.117125000000001</v>
+        <v>35.157477</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117">
-        <v>9951418</v>
+        <v>9951411</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>9951407</v>
+        <v>9951412</v>
       </c>
       <c r="B118">
-        <v>9951407</v>
+        <v>9951412</v>
       </c>
       <c r="C118" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D118">
-        <v>9951407</v>
+        <v>9951412</v>
       </c>
       <c r="F118">
         <v>99514</v>
@@ -6216,36 +6216,36 @@
         <v>23</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="I118" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J118">
-        <v>136.90537900000001</v>
+        <v>136.90482399999999</v>
       </c>
       <c r="K118">
-        <v>35.181559999999998</v>
+        <v>35.150452999999999</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118">
-        <v>9951407</v>
+        <v>9951412</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>9951403</v>
+        <v>9951413</v>
       </c>
       <c r="B119">
-        <v>9951403</v>
+        <v>1141102</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="D119">
-        <v>9951403</v>
+        <v>1141102</v>
       </c>
       <c r="F119">
         <v>99514</v>
@@ -6254,36 +6254,36 @@
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="J119">
-        <v>136.92978400000001</v>
+        <v>136.901611</v>
       </c>
       <c r="K119">
-        <v>35.195934000000001</v>
+        <v>35.143520000000002</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>9951403</v>
+        <v>9951413</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>9951404</v>
+        <v>9951414</v>
       </c>
       <c r="B120">
-        <v>9951404</v>
+        <v>9951414</v>
       </c>
       <c r="C120" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D120">
-        <v>9951404</v>
+        <v>9951414</v>
       </c>
       <c r="F120">
         <v>99514</v>
@@ -6292,36 +6292,36 @@
         <v>23</v>
       </c>
       <c r="H120" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="I120" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J120">
-        <v>136.92121</v>
+        <v>136.901769</v>
       </c>
       <c r="K120">
-        <v>35.196280999999999</v>
+        <v>35.134622</v>
       </c>
       <c r="N120">
         <v>0</v>
       </c>
       <c r="O120">
-        <v>9951404</v>
+        <v>9951414</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>9951419</v>
+        <v>9951415</v>
       </c>
       <c r="B121">
-        <v>9951419</v>
+        <v>9951415</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D121">
-        <v>9951419</v>
+        <v>9951415</v>
       </c>
       <c r="F121">
         <v>99514</v>
@@ -6330,36 +6330,36 @@
         <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I121" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J121">
-        <v>136.93660299999999</v>
+        <v>136.906769</v>
       </c>
       <c r="K121">
-        <v>35.117733999999999</v>
+        <v>35.127955999999998</v>
       </c>
       <c r="N121">
         <v>0</v>
       </c>
       <c r="O121">
-        <v>9951419</v>
+        <v>9951415</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>9951425</v>
+        <v>9951416</v>
       </c>
       <c r="B122">
-        <v>9951316</v>
+        <v>9951416</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c r="D122">
-        <v>9951316</v>
+        <v>9951416</v>
       </c>
       <c r="F122">
         <v>99514</v>
@@ -6368,36 +6368,36 @@
         <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="I122" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="J122">
-        <v>136.96344099999999</v>
+        <v>136.91038</v>
       </c>
       <c r="K122">
-        <v>35.163922999999997</v>
+        <v>35.120735000000003</v>
       </c>
       <c r="N122">
         <v>0</v>
       </c>
       <c r="O122">
-        <v>9951425</v>
+        <v>9951416</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>9951412</v>
+        <v>9951417</v>
       </c>
       <c r="B123">
-        <v>9951412</v>
+        <v>9951417</v>
       </c>
       <c r="C123" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="D123">
-        <v>9951412</v>
+        <v>9951417</v>
       </c>
       <c r="F123">
         <v>99514</v>
@@ -6406,36 +6406,36 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="I123" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="J123">
-        <v>136.90482399999999</v>
+        <v>136.921685</v>
       </c>
       <c r="K123">
-        <v>35.150452999999999</v>
+        <v>35.116644000000001</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123">
-        <v>9951412</v>
+        <v>9951417</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>9951409</v>
+        <v>9951418</v>
       </c>
       <c r="B124">
-        <v>3001201</v>
+        <v>9951418</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="D124">
-        <v>3001201</v>
+        <v>9951418</v>
       </c>
       <c r="F124">
         <v>99514</v>
@@ -6444,36 +6444,36 @@
         <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="J124">
-        <v>136.90803099999999</v>
+        <v>136.92954499999999</v>
       </c>
       <c r="K124">
-        <v>35.169989999999999</v>
+        <v>35.117125000000001</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>9951409</v>
+        <v>9951418</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>9951420</v>
+        <v>9951419</v>
       </c>
       <c r="B125">
-        <v>9951420</v>
+        <v>9951419</v>
       </c>
       <c r="C125" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D125">
-        <v>9951420</v>
+        <v>9951419</v>
       </c>
       <c r="F125">
         <v>99514</v>
@@ -6482,36 +6482,36 @@
         <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I125" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J125">
-        <v>136.94868500000001</v>
+        <v>136.93660299999999</v>
       </c>
       <c r="K125">
-        <v>35.123167000000002</v>
+        <v>35.117733999999999</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
       <c r="O125">
-        <v>9951420</v>
+        <v>9951419</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>9951410</v>
+        <v>9951420</v>
       </c>
       <c r="B126">
-        <v>9951410</v>
+        <v>9951420</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D126">
-        <v>9951410</v>
+        <v>9951420</v>
       </c>
       <c r="F126">
         <v>99514</v>
@@ -6520,36 +6520,36 @@
         <v>23</v>
       </c>
       <c r="H126" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="I126" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="J126">
-        <v>136.90898999999999</v>
+        <v>136.94868500000001</v>
       </c>
       <c r="K126">
-        <v>35.163784999999997</v>
+        <v>35.123167000000002</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126">
-        <v>9951410</v>
+        <v>9951420</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>9951428</v>
+        <v>9951421</v>
       </c>
       <c r="B127">
-        <v>9951428</v>
+        <v>9951421</v>
       </c>
       <c r="C127" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D127">
-        <v>9951428</v>
+        <v>9951421</v>
       </c>
       <c r="F127">
         <v>99514</v>
@@ -6558,36 +6558,36 @@
         <v>23</v>
       </c>
       <c r="H127" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="I127" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="J127">
-        <v>136.95399900000001</v>
+        <v>136.95452299999999</v>
       </c>
       <c r="K127">
-        <v>35.188861000000003</v>
+        <v>35.130535999999999</v>
       </c>
       <c r="N127">
         <v>0</v>
       </c>
       <c r="O127">
-        <v>9951428</v>
+        <v>9951421</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>9951415</v>
+        <v>9951422</v>
       </c>
       <c r="B128">
-        <v>9951415</v>
+        <v>9951422</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D128">
-        <v>9951415</v>
+        <v>9951422</v>
       </c>
       <c r="F128">
         <v>99514</v>
@@ -6596,36 +6596,36 @@
         <v>23</v>
       </c>
       <c r="H128" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="I128" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J128">
-        <v>136.906769</v>
+        <v>136.96403599999999</v>
       </c>
       <c r="K128">
-        <v>35.127955999999998</v>
+        <v>35.136946000000002</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
       <c r="O128">
-        <v>9951415</v>
+        <v>9951422</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>9951421</v>
+        <v>9951423</v>
       </c>
       <c r="B129">
-        <v>9951421</v>
+        <v>9951423</v>
       </c>
       <c r="C129" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D129">
-        <v>9951421</v>
+        <v>9951423</v>
       </c>
       <c r="F129">
         <v>99514</v>
@@ -6634,36 +6634,36 @@
         <v>23</v>
       </c>
       <c r="H129" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I129" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J129">
-        <v>136.95452299999999</v>
+        <v>136.96500800000001</v>
       </c>
       <c r="K129">
-        <v>35.130535999999999</v>
+        <v>35.144556000000001</v>
       </c>
       <c r="N129">
         <v>0</v>
       </c>
       <c r="O129">
-        <v>9951421</v>
+        <v>9951423</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>9951426</v>
+        <v>9951424</v>
       </c>
       <c r="B130">
-        <v>9951426</v>
+        <v>9951424</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D130">
-        <v>9951426</v>
+        <v>9951424</v>
       </c>
       <c r="F130">
         <v>99514</v>
@@ -6672,36 +6672,36 @@
         <v>23</v>
       </c>
       <c r="H130" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I130" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J130">
-        <v>136.96676199999999</v>
+        <v>136.96657999999999</v>
       </c>
       <c r="K130">
-        <v>35.174961000000003</v>
+        <v>35.154260999999998</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
       <c r="O130">
-        <v>9951426</v>
+        <v>9951424</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>9951427</v>
+        <v>9951425</v>
       </c>
       <c r="B131">
-        <v>9951427</v>
+        <v>9951316</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>65</v>
       </c>
       <c r="D131">
-        <v>9951427</v>
+        <v>9951316</v>
       </c>
       <c r="F131">
         <v>99514</v>
@@ -6710,36 +6710,36 @@
         <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="I131" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="J131">
-        <v>136.962254</v>
+        <v>136.96344099999999</v>
       </c>
       <c r="K131">
-        <v>35.184612000000001</v>
+        <v>35.163922999999997</v>
       </c>
       <c r="N131">
         <v>0</v>
       </c>
       <c r="O131">
-        <v>9951427</v>
+        <v>9951425</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>9951414</v>
+        <v>9951426</v>
       </c>
       <c r="B132">
-        <v>9951414</v>
+        <v>9951426</v>
       </c>
       <c r="C132" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D132">
-        <v>9951414</v>
+        <v>9951426</v>
       </c>
       <c r="F132">
         <v>99514</v>
@@ -6748,36 +6748,36 @@
         <v>23</v>
       </c>
       <c r="H132" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="I132" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="J132">
-        <v>136.901769</v>
+        <v>136.96676199999999</v>
       </c>
       <c r="K132">
-        <v>35.134622</v>
+        <v>35.174961000000003</v>
       </c>
       <c r="N132">
         <v>0</v>
       </c>
       <c r="O132">
-        <v>9951414</v>
+        <v>9951426</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>9951413</v>
+        <v>9951427</v>
       </c>
       <c r="B133">
-        <v>1141102</v>
+        <v>9951427</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
       <c r="D133">
-        <v>1141102</v>
+        <v>9951427</v>
       </c>
       <c r="F133">
         <v>99514</v>
@@ -6786,36 +6786,36 @@
         <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="I133" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="J133">
-        <v>136.901611</v>
+        <v>136.962254</v>
       </c>
       <c r="K133">
-        <v>35.143520000000002</v>
+        <v>35.184612000000001</v>
       </c>
       <c r="N133">
         <v>0</v>
       </c>
       <c r="O133">
-        <v>9951413</v>
+        <v>9951427</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>9951405</v>
+        <v>9951428</v>
       </c>
       <c r="B134">
-        <v>9951405</v>
+        <v>9951428</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="D134">
-        <v>9951405</v>
+        <v>9951428</v>
       </c>
       <c r="F134">
         <v>99514</v>
@@ -6824,36 +6824,36 @@
         <v>23</v>
       </c>
       <c r="H134" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="I134" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="J134">
-        <v>136.910178</v>
+        <v>136.95399900000001</v>
       </c>
       <c r="K134">
-        <v>35.197183000000003</v>
+        <v>35.188861000000003</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
       <c r="O134">
-        <v>9951405</v>
+        <v>9951428</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>9951503</v>
+        <v>9951501</v>
       </c>
       <c r="B135">
-        <v>9951503</v>
+        <v>1141102</v>
       </c>
       <c r="C135" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>9951503</v>
+        <v>1141102</v>
       </c>
       <c r="F135">
         <v>99515</v>
@@ -6862,36 +6862,36 @@
         <v>23</v>
       </c>
       <c r="H135" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="J135">
-        <v>136.88871499999999</v>
+        <v>136.901611</v>
       </c>
       <c r="K135">
-        <v>35.124623</v>
+        <v>35.143520000000002</v>
       </c>
       <c r="N135">
         <v>0</v>
       </c>
       <c r="O135">
-        <v>9951503</v>
+        <v>9951501</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>9951507</v>
+        <v>9951502</v>
       </c>
       <c r="B136">
-        <v>9951507</v>
+        <v>9951502</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>160</v>
       </c>
       <c r="D136">
-        <v>9951507</v>
+        <v>9951502</v>
       </c>
       <c r="F136">
         <v>99515</v>
@@ -6900,36 +6900,36 @@
         <v>23</v>
       </c>
       <c r="H136" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="I136" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="J136">
-        <v>136.88197099999999</v>
+        <v>136.893125</v>
       </c>
       <c r="K136">
-        <v>35.09348</v>
+        <v>35.132711</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
       <c r="O136">
-        <v>9951507</v>
+        <v>9951502</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>9951502</v>
+        <v>9951503</v>
       </c>
       <c r="B137">
-        <v>9951502</v>
+        <v>9951503</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="D137">
-        <v>9951502</v>
+        <v>9951503</v>
       </c>
       <c r="F137">
         <v>99515</v>
@@ -6938,22 +6938,22 @@
         <v>23</v>
       </c>
       <c r="H137" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I137" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J137">
-        <v>136.893125</v>
+        <v>136.88871499999999</v>
       </c>
       <c r="K137">
-        <v>35.132711</v>
+        <v>35.124623</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
       <c r="O137">
-        <v>9951502</v>
+        <v>9951503</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
@@ -7072,16 +7072,16 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>9951501</v>
+        <v>9951507</v>
       </c>
       <c r="B141">
-        <v>1141102</v>
+        <v>9951507</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="D141">
-        <v>1141102</v>
+        <v>9951507</v>
       </c>
       <c r="F141">
         <v>99515</v>
@@ -7090,36 +7090,36 @@
         <v>23</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>355</v>
       </c>
       <c r="I141" t="s">
-        <v>24</v>
+        <v>356</v>
       </c>
       <c r="J141">
-        <v>136.901611</v>
+        <v>136.88197099999999</v>
       </c>
       <c r="K141">
-        <v>35.143520000000002</v>
+        <v>35.09348</v>
       </c>
       <c r="N141">
         <v>0</v>
       </c>
       <c r="O141">
-        <v>9951501</v>
+        <v>9951507</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>9951614</v>
+        <v>9951601</v>
       </c>
       <c r="B142">
-        <v>9951614</v>
+        <v>3001506</v>
       </c>
       <c r="C142" t="s">
-        <v>381</v>
+        <v>164</v>
       </c>
       <c r="D142">
-        <v>9951614</v>
+        <v>3001506</v>
       </c>
       <c r="F142">
         <v>99516</v>
@@ -7128,36 +7128,36 @@
         <v>23</v>
       </c>
       <c r="H142" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="I142" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="J142">
-        <v>136.955375</v>
+        <v>136.87694099999999</v>
       </c>
       <c r="K142">
-        <v>35.143234</v>
+        <v>35.223481999999997</v>
       </c>
       <c r="N142">
         <v>0</v>
       </c>
       <c r="O142">
-        <v>9951614</v>
+        <v>9951601</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>9951609</v>
+        <v>9951602</v>
       </c>
       <c r="B143">
-        <v>9951411</v>
+        <v>9951602</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="D143">
-        <v>9951411</v>
+        <v>9951602</v>
       </c>
       <c r="F143">
         <v>99516</v>
@@ -7166,36 +7166,36 @@
         <v>23</v>
       </c>
       <c r="H143" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="I143" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="J143">
-        <v>136.90681499999999</v>
+        <v>136.88696300000001</v>
       </c>
       <c r="K143">
-        <v>35.157477</v>
+        <v>35.215186000000003</v>
       </c>
       <c r="N143">
         <v>0</v>
       </c>
       <c r="O143">
-        <v>9951609</v>
+        <v>9951602</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>9951601</v>
+        <v>9951603</v>
       </c>
       <c r="B144">
-        <v>3001506</v>
+        <v>9951603</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="D144">
-        <v>3001506</v>
+        <v>9951603</v>
       </c>
       <c r="F144">
         <v>99516</v>
@@ -7204,36 +7204,36 @@
         <v>23</v>
       </c>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="I144" t="s">
-        <v>166</v>
+        <v>362</v>
       </c>
       <c r="J144">
-        <v>136.87694099999999</v>
+        <v>136.89104399999999</v>
       </c>
       <c r="K144">
-        <v>35.223481999999997</v>
+        <v>35.204476</v>
       </c>
       <c r="N144">
         <v>0</v>
       </c>
       <c r="O144">
-        <v>9951601</v>
+        <v>9951603</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>9951606</v>
+        <v>9951604</v>
       </c>
       <c r="B145">
-        <v>9951606</v>
+        <v>9951604</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
       <c r="D145">
-        <v>9951606</v>
+        <v>9951604</v>
       </c>
       <c r="F145">
         <v>99516</v>
@@ -7242,36 +7242,36 @@
         <v>23</v>
       </c>
       <c r="H145" t="s">
-        <v>249</v>
+        <v>364</v>
       </c>
       <c r="I145" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J145">
-        <v>136.89694399999999</v>
+        <v>136.89081899999999</v>
       </c>
       <c r="K145">
-        <v>35.173457999999997</v>
+        <v>35.192205000000001</v>
       </c>
       <c r="N145">
         <v>0</v>
       </c>
       <c r="O145">
-        <v>9951606</v>
+        <v>9951604</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>9951607</v>
+        <v>9951605</v>
       </c>
       <c r="B146">
-        <v>9951309</v>
+        <v>9951605</v>
       </c>
       <c r="C146" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="D146">
-        <v>9951309</v>
+        <v>9951605</v>
       </c>
       <c r="F146">
         <v>99516</v>
@@ -7280,36 +7280,36 @@
         <v>23</v>
       </c>
       <c r="H146" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="I146" t="s">
-        <v>250</v>
+        <v>368</v>
       </c>
       <c r="J146">
-        <v>136.89742699999999</v>
+        <v>136.89033499999999</v>
       </c>
       <c r="K146">
-        <v>35.169272999999997</v>
+        <v>35.183839999999996</v>
       </c>
       <c r="N146">
         <v>0</v>
       </c>
       <c r="O146">
-        <v>9951607</v>
+        <v>9951605</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>9951615</v>
+        <v>9951606</v>
       </c>
       <c r="B147">
-        <v>9951422</v>
+        <v>9951606</v>
       </c>
       <c r="C147" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="D147">
-        <v>9951422</v>
+        <v>9951606</v>
       </c>
       <c r="F147">
         <v>99516</v>
@@ -7318,36 +7318,36 @@
         <v>23</v>
       </c>
       <c r="H147" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="I147" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="J147">
-        <v>136.96403599999999</v>
+        <v>136.89694399999999</v>
       </c>
       <c r="K147">
-        <v>35.136946000000002</v>
+        <v>35.173457999999997</v>
       </c>
       <c r="N147">
         <v>0</v>
       </c>
       <c r="O147">
-        <v>9951615</v>
+        <v>9951606</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>9951618</v>
+        <v>9951607</v>
       </c>
       <c r="B148">
-        <v>9951618</v>
+        <v>9951309</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="D148">
-        <v>9951618</v>
+        <v>9951309</v>
       </c>
       <c r="F148">
         <v>99516</v>
@@ -7356,36 +7356,36 @@
         <v>23</v>
       </c>
       <c r="H148" t="s">
-        <v>389</v>
+        <v>249</v>
       </c>
       <c r="I148" t="s">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="J148">
-        <v>136.996714</v>
+        <v>136.89742699999999</v>
       </c>
       <c r="K148">
-        <v>35.126117999999998</v>
+        <v>35.169272999999997</v>
       </c>
       <c r="N148">
         <v>0</v>
       </c>
       <c r="O148">
-        <v>9951618</v>
+        <v>9951607</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>9951616</v>
+        <v>9951608</v>
       </c>
       <c r="B149">
-        <v>9951616</v>
+        <v>9951608</v>
       </c>
       <c r="C149" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D149">
-        <v>9951616</v>
+        <v>9951608</v>
       </c>
       <c r="F149">
         <v>99516</v>
@@ -7394,36 +7394,36 @@
         <v>23</v>
       </c>
       <c r="H149" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="I149" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J149">
-        <v>136.977529</v>
+        <v>136.898158</v>
       </c>
       <c r="K149">
-        <v>35.132432999999999</v>
+        <v>35.160729000000003</v>
       </c>
       <c r="N149">
         <v>0</v>
       </c>
       <c r="O149">
-        <v>9951616</v>
+        <v>9951608</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>9951608</v>
+        <v>9951609</v>
       </c>
       <c r="B150">
-        <v>9951608</v>
+        <v>9951411</v>
       </c>
       <c r="C150" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="D150">
-        <v>9951608</v>
+        <v>9951411</v>
       </c>
       <c r="F150">
         <v>99516</v>
@@ -7435,33 +7435,33 @@
         <v>298</v>
       </c>
       <c r="I150" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="J150">
-        <v>136.898158</v>
+        <v>136.90681499999999</v>
       </c>
       <c r="K150">
-        <v>35.160729000000003</v>
+        <v>35.157477</v>
       </c>
       <c r="N150">
         <v>0</v>
       </c>
       <c r="O150">
-        <v>9951608</v>
+        <v>9951609</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>9951613</v>
+        <v>9951610</v>
       </c>
       <c r="B151">
-        <v>9951613</v>
+        <v>1141103</v>
       </c>
       <c r="C151" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="D151">
-        <v>9951613</v>
+        <v>1141103</v>
       </c>
       <c r="F151">
         <v>99516</v>
@@ -7470,36 +7470,36 @@
         <v>23</v>
       </c>
       <c r="H151" t="s">
-        <v>379</v>
+        <v>26</v>
       </c>
       <c r="I151" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="J151">
-        <v>136.94871699999999</v>
+        <v>136.91674900000001</v>
       </c>
       <c r="K151">
-        <v>35.148702999999998</v>
+        <v>35.15596</v>
       </c>
       <c r="N151">
         <v>0</v>
       </c>
       <c r="O151">
-        <v>9951613</v>
+        <v>9951610</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>9951619</v>
+        <v>9951611</v>
       </c>
       <c r="B152">
-        <v>9951619</v>
+        <v>9951611</v>
       </c>
       <c r="C152" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D152">
-        <v>9951619</v>
+        <v>9951611</v>
       </c>
       <c r="F152">
         <v>99516</v>
@@ -7508,36 +7508,36 @@
         <v>23</v>
       </c>
       <c r="H152" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="I152" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="J152">
-        <v>137.00690399999999</v>
+        <v>136.92592999999999</v>
       </c>
       <c r="K152">
-        <v>35.122765999999999</v>
+        <v>35.149653999999998</v>
       </c>
       <c r="N152">
         <v>0</v>
       </c>
       <c r="O152">
-        <v>9951619</v>
+        <v>9951611</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>9951602</v>
+        <v>9951612</v>
       </c>
       <c r="B153">
-        <v>9951602</v>
+        <v>9951612</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D153">
-        <v>9951602</v>
+        <v>9951612</v>
       </c>
       <c r="F153">
         <v>99516</v>
@@ -7546,36 +7546,36 @@
         <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="I153" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="J153">
-        <v>136.88696300000001</v>
+        <v>136.934146</v>
       </c>
       <c r="K153">
-        <v>35.215186000000003</v>
+        <v>35.149585000000002</v>
       </c>
       <c r="N153">
         <v>0</v>
       </c>
       <c r="O153">
-        <v>9951602</v>
+        <v>9951612</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>9951603</v>
+        <v>9951613</v>
       </c>
       <c r="B154">
-        <v>9951603</v>
+        <v>9951613</v>
       </c>
       <c r="C154" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D154">
-        <v>9951603</v>
+        <v>9951613</v>
       </c>
       <c r="F154">
         <v>99516</v>
@@ -7584,36 +7584,36 @@
         <v>23</v>
       </c>
       <c r="H154" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="I154" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="J154">
-        <v>136.89104399999999</v>
+        <v>136.94871699999999</v>
       </c>
       <c r="K154">
-        <v>35.204476</v>
+        <v>35.148702999999998</v>
       </c>
       <c r="N154">
         <v>0</v>
       </c>
       <c r="O154">
-        <v>9951603</v>
+        <v>9951613</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>9951612</v>
+        <v>9951614</v>
       </c>
       <c r="B155">
-        <v>9951612</v>
+        <v>9951614</v>
       </c>
       <c r="C155" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D155">
-        <v>9951612</v>
+        <v>9951614</v>
       </c>
       <c r="F155">
         <v>99516</v>
@@ -7622,36 +7622,36 @@
         <v>23</v>
       </c>
       <c r="H155" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I155" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J155">
-        <v>136.934146</v>
+        <v>136.955375</v>
       </c>
       <c r="K155">
-        <v>35.149585000000002</v>
+        <v>35.143234</v>
       </c>
       <c r="N155">
         <v>0</v>
       </c>
       <c r="O155">
-        <v>9951612</v>
+        <v>9951614</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>9951617</v>
+        <v>9951615</v>
       </c>
       <c r="B156">
-        <v>9951617</v>
+        <v>9951422</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="D156">
-        <v>9951617</v>
+        <v>9951422</v>
       </c>
       <c r="F156">
         <v>99516</v>
@@ -7660,36 +7660,36 @@
         <v>23</v>
       </c>
       <c r="H156" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="I156" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="J156">
-        <v>136.98788200000001</v>
+        <v>136.96403599999999</v>
       </c>
       <c r="K156">
-        <v>35.128649000000003</v>
+        <v>35.136946000000002</v>
       </c>
       <c r="N156">
         <v>0</v>
       </c>
       <c r="O156">
-        <v>9951617</v>
+        <v>9951615</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>9951604</v>
+        <v>9951616</v>
       </c>
       <c r="B157">
-        <v>9951604</v>
+        <v>9951616</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="D157">
-        <v>9951604</v>
+        <v>9951616</v>
       </c>
       <c r="F157">
         <v>99516</v>
@@ -7698,36 +7698,36 @@
         <v>23</v>
       </c>
       <c r="H157" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="I157" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="J157">
-        <v>136.89081899999999</v>
+        <v>136.977529</v>
       </c>
       <c r="K157">
-        <v>35.192205000000001</v>
+        <v>35.132432999999999</v>
       </c>
       <c r="N157">
         <v>0</v>
       </c>
       <c r="O157">
-        <v>9951604</v>
+        <v>9951616</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>9951605</v>
+        <v>9951617</v>
       </c>
       <c r="B158">
-        <v>9951605</v>
+        <v>9951617</v>
       </c>
       <c r="C158" t="s">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="D158">
-        <v>9951605</v>
+        <v>9951617</v>
       </c>
       <c r="F158">
         <v>99516</v>
@@ -7736,36 +7736,36 @@
         <v>23</v>
       </c>
       <c r="H158" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="I158" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="J158">
-        <v>136.89033499999999</v>
+        <v>136.98788200000001</v>
       </c>
       <c r="K158">
-        <v>35.183839999999996</v>
+        <v>35.128649000000003</v>
       </c>
       <c r="N158">
         <v>0</v>
       </c>
       <c r="O158">
-        <v>9951605</v>
+        <v>9951617</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>9951611</v>
+        <v>9951618</v>
       </c>
       <c r="B159">
-        <v>9951611</v>
+        <v>9951618</v>
       </c>
       <c r="C159" t="s">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="D159">
-        <v>9951611</v>
+        <v>9951618</v>
       </c>
       <c r="F159">
         <v>99516</v>
@@ -7774,36 +7774,36 @@
         <v>23</v>
       </c>
       <c r="H159" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="I159" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="J159">
-        <v>136.92592999999999</v>
+        <v>136.996714</v>
       </c>
       <c r="K159">
-        <v>35.149653999999998</v>
+        <v>35.126117999999998</v>
       </c>
       <c r="N159">
         <v>0</v>
       </c>
       <c r="O159">
-        <v>9951611</v>
+        <v>9951618</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>9951610</v>
+        <v>9951619</v>
       </c>
       <c r="B160">
-        <v>1141103</v>
+        <v>9951619</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
       <c r="D160">
-        <v>1141103</v>
+        <v>9951619</v>
       </c>
       <c r="F160">
         <v>99516</v>
@@ -7812,22 +7812,22 @@
         <v>23</v>
       </c>
       <c r="H160" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="I160" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="J160">
-        <v>136.91674900000001</v>
+        <v>137.00690399999999</v>
       </c>
       <c r="K160">
-        <v>35.15596</v>
+        <v>35.122765999999999</v>
       </c>
       <c r="N160">
         <v>0</v>
       </c>
       <c r="O160">
-        <v>9951610</v>
+        <v>9951619</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
@@ -7870,16 +7870,16 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>9951704</v>
+        <v>9951702</v>
       </c>
       <c r="B162">
-        <v>9951606</v>
+        <v>1141101</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="D162">
-        <v>9951606</v>
+        <v>1141101</v>
       </c>
       <c r="F162">
         <v>99517</v>
@@ -7888,36 +7888,36 @@
         <v>23</v>
       </c>
       <c r="H162" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I162" t="s">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="J162">
-        <v>136.898113</v>
+        <v>136.88254599999999</v>
       </c>
       <c r="K162">
-        <v>35.173098000000003</v>
+        <v>35.170760999999999</v>
       </c>
       <c r="N162">
         <v>0</v>
       </c>
       <c r="O162">
-        <v>9951704</v>
+        <v>9951702</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>9951705</v>
+        <v>9951703</v>
       </c>
       <c r="B163">
-        <v>9951408</v>
+        <v>9951703</v>
       </c>
       <c r="C163" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="D163">
-        <v>9951408</v>
+        <v>9951703</v>
       </c>
       <c r="F163">
         <v>99517</v>
@@ -7926,36 +7926,36 @@
         <v>23</v>
       </c>
       <c r="H163" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I163" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="J163">
-        <v>136.90815599999999</v>
+        <v>136.889375</v>
       </c>
       <c r="K163">
-        <v>35.173783999999998</v>
+        <v>35.172128000000001</v>
       </c>
       <c r="N163">
         <v>0</v>
       </c>
       <c r="O163">
-        <v>9951705</v>
+        <v>9951703</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>9951708</v>
+        <v>9951704</v>
       </c>
       <c r="B164">
-        <v>9951313</v>
+        <v>9951606</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="D164">
-        <v>9951313</v>
+        <v>9951606</v>
       </c>
       <c r="F164">
         <v>99517</v>
@@ -7964,36 +7964,36 @@
         <v>23</v>
       </c>
       <c r="H164" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I164" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="J164">
-        <v>136.937331</v>
+        <v>136.898113</v>
       </c>
       <c r="K164">
-        <v>35.169919</v>
+        <v>35.173098000000003</v>
       </c>
       <c r="N164">
         <v>0</v>
       </c>
       <c r="O164">
-        <v>9951708</v>
+        <v>9951704</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>9951702</v>
+        <v>9951705</v>
       </c>
       <c r="B165">
-        <v>1141101</v>
+        <v>9951408</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="D165">
-        <v>1141101</v>
+        <v>9951408</v>
       </c>
       <c r="F165">
         <v>99517</v>
@@ -8002,36 +8002,36 @@
         <v>23</v>
       </c>
       <c r="H165" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="I165" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="J165">
-        <v>136.88254599999999</v>
+        <v>136.90815599999999</v>
       </c>
       <c r="K165">
-        <v>35.170760999999999</v>
+        <v>35.173783999999998</v>
       </c>
       <c r="N165">
         <v>0</v>
       </c>
       <c r="O165">
-        <v>9951702</v>
+        <v>9951705</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>9951709</v>
+        <v>9951706</v>
       </c>
       <c r="B166">
-        <v>9951709</v>
+        <v>9951706</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="D166">
-        <v>9951709</v>
+        <v>9951706</v>
       </c>
       <c r="F166">
         <v>99517</v>
@@ -8040,36 +8040,36 @@
         <v>23</v>
       </c>
       <c r="H166" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
       <c r="I166" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J166">
-        <v>136.93537599999999</v>
+        <v>136.91565600000001</v>
       </c>
       <c r="K166">
-        <v>35.158786999999997</v>
+        <v>35.174061999999999</v>
       </c>
       <c r="N166">
         <v>0</v>
       </c>
       <c r="O166">
-        <v>9951709</v>
+        <v>9951706</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>9951703</v>
+        <v>9951707</v>
       </c>
       <c r="B167">
-        <v>9951703</v>
+        <v>9951707</v>
       </c>
       <c r="C167" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="D167">
-        <v>9951703</v>
+        <v>9951707</v>
       </c>
       <c r="F167">
         <v>99517</v>
@@ -8078,36 +8078,36 @@
         <v>23</v>
       </c>
       <c r="H167" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="I167" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J167">
-        <v>136.889375</v>
+        <v>136.929543</v>
       </c>
       <c r="K167">
-        <v>35.172128000000001</v>
+        <v>35.173507000000001</v>
       </c>
       <c r="N167">
         <v>0</v>
       </c>
       <c r="O167">
-        <v>9951703</v>
+        <v>9951707</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>9951710</v>
+        <v>9951708</v>
       </c>
       <c r="B168">
-        <v>9951612</v>
+        <v>9951313</v>
       </c>
       <c r="C168" t="s">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="D168">
-        <v>9951612</v>
+        <v>9951313</v>
       </c>
       <c r="F168">
         <v>99517</v>
@@ -8116,36 +8116,36 @@
         <v>23</v>
       </c>
       <c r="H168" t="s">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="I168" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="J168">
-        <v>136.934146</v>
+        <v>136.937331</v>
       </c>
       <c r="K168">
-        <v>35.149585000000002</v>
+        <v>35.169919</v>
       </c>
       <c r="N168">
         <v>0</v>
       </c>
       <c r="O168">
-        <v>9951710</v>
+        <v>9951708</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>9951721</v>
+        <v>9951709</v>
       </c>
       <c r="B169">
-        <v>9951721</v>
+        <v>9951709</v>
       </c>
       <c r="C169" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="D169">
-        <v>9951721</v>
+        <v>9951709</v>
       </c>
       <c r="F169">
         <v>99517</v>
@@ -8154,39 +8154,36 @@
         <v>23</v>
       </c>
       <c r="H169" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="I169" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="J169">
-        <v>136.99815000000001</v>
+        <v>136.93537599999999</v>
       </c>
       <c r="K169">
-        <v>35.094490999999998</v>
-      </c>
-      <c r="L169" s="1">
-        <v>40629</v>
+        <v>35.158786999999997</v>
       </c>
       <c r="N169">
         <v>0</v>
       </c>
       <c r="O169">
-        <v>9951721</v>
+        <v>9951709</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>9951714</v>
+        <v>9951710</v>
       </c>
       <c r="B170">
-        <v>9951419</v>
+        <v>9951612</v>
       </c>
       <c r="C170" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="D170">
-        <v>9951419</v>
+        <v>9951612</v>
       </c>
       <c r="F170">
         <v>99517</v>
@@ -8195,22 +8192,22 @@
         <v>23</v>
       </c>
       <c r="H170" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="I170" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="J170">
-        <v>136.93660299999999</v>
+        <v>136.934146</v>
       </c>
       <c r="K170">
-        <v>35.117733999999999</v>
+        <v>35.149585000000002</v>
       </c>
       <c r="N170">
         <v>0</v>
       </c>
       <c r="O170">
-        <v>9951714</v>
+        <v>9951710</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
@@ -8253,16 +8250,16 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>9951715</v>
+        <v>9951712</v>
       </c>
       <c r="B172">
-        <v>9951715</v>
+        <v>9951712</v>
       </c>
       <c r="C172" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D172">
-        <v>9951715</v>
+        <v>9951712</v>
       </c>
       <c r="F172">
         <v>99517</v>
@@ -8271,36 +8268,36 @@
         <v>23</v>
       </c>
       <c r="H172" t="s">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="I172" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J172">
-        <v>136.93676099999999</v>
+        <v>136.93442999999999</v>
       </c>
       <c r="K172">
-        <v>35.109000999999999</v>
+        <v>35.131793000000002</v>
       </c>
       <c r="N172">
         <v>0</v>
       </c>
       <c r="O172">
-        <v>9951715</v>
+        <v>9951712</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>9951712</v>
+        <v>9951713</v>
       </c>
       <c r="B173">
-        <v>9951712</v>
+        <v>9951713</v>
       </c>
       <c r="C173" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D173">
-        <v>9951712</v>
+        <v>9951713</v>
       </c>
       <c r="F173">
         <v>99517</v>
@@ -8312,33 +8309,33 @@
         <v>316</v>
       </c>
       <c r="I173" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J173">
-        <v>136.93442999999999</v>
+        <v>136.93547699999999</v>
       </c>
       <c r="K173">
-        <v>35.131793000000002</v>
+        <v>35.124949000000001</v>
       </c>
       <c r="N173">
         <v>0</v>
       </c>
       <c r="O173">
-        <v>9951712</v>
+        <v>9951713</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>9951713</v>
+        <v>9951714</v>
       </c>
       <c r="B174">
-        <v>9951713</v>
+        <v>9951419</v>
       </c>
       <c r="C174" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="D174">
-        <v>9951713</v>
+        <v>9951419</v>
       </c>
       <c r="F174">
         <v>99517</v>
@@ -8350,33 +8347,33 @@
         <v>316</v>
       </c>
       <c r="I174" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="J174">
-        <v>136.93547699999999</v>
+        <v>136.93660299999999</v>
       </c>
       <c r="K174">
-        <v>35.124949000000001</v>
+        <v>35.117733999999999</v>
       </c>
       <c r="N174">
         <v>0</v>
       </c>
       <c r="O174">
-        <v>9951713</v>
+        <v>9951714</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>9951719</v>
+        <v>9951715</v>
       </c>
       <c r="B175">
-        <v>9951719</v>
+        <v>9951715</v>
       </c>
       <c r="C175" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D175">
-        <v>9951719</v>
+        <v>9951715</v>
       </c>
       <c r="F175">
         <v>99517</v>
@@ -8385,39 +8382,36 @@
         <v>23</v>
       </c>
       <c r="H175" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I175" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="J175">
-        <v>136.97620800000001</v>
+        <v>136.93676099999999</v>
       </c>
       <c r="K175">
-        <v>35.102544999999999</v>
-      </c>
-      <c r="L175" s="1">
-        <v>40629</v>
+        <v>35.109000999999999</v>
       </c>
       <c r="N175">
         <v>0</v>
       </c>
       <c r="O175">
-        <v>9951719</v>
+        <v>9951715</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>9951720</v>
+        <v>9951716</v>
       </c>
       <c r="B176">
-        <v>9951720</v>
+        <v>9951716</v>
       </c>
       <c r="C176" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D176">
-        <v>9951720</v>
+        <v>9951716</v>
       </c>
       <c r="F176">
         <v>99517</v>
@@ -8426,39 +8420,36 @@
         <v>23</v>
       </c>
       <c r="H176" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="I176" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="J176">
-        <v>136.98954000000001</v>
+        <v>136.943433</v>
       </c>
       <c r="K176">
-        <v>35.098517999999999</v>
-      </c>
-      <c r="L176" s="1">
-        <v>40629</v>
+        <v>35.105738000000002</v>
       </c>
       <c r="N176">
         <v>0</v>
       </c>
       <c r="O176">
-        <v>9951720</v>
+        <v>9951716</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>9951707</v>
+        <v>9951717</v>
       </c>
       <c r="B177">
-        <v>9951707</v>
+        <v>9951717</v>
       </c>
       <c r="C177" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D177">
-        <v>9951707</v>
+        <v>9951717</v>
       </c>
       <c r="F177">
         <v>99517</v>
@@ -8467,36 +8458,36 @@
         <v>23</v>
       </c>
       <c r="H177" t="s">
-        <v>254</v>
+        <v>418</v>
       </c>
       <c r="I177" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="J177">
-        <v>136.929543</v>
+        <v>136.95549</v>
       </c>
       <c r="K177">
-        <v>35.173507000000001</v>
+        <v>35.102358000000002</v>
       </c>
       <c r="N177">
         <v>0</v>
       </c>
       <c r="O177">
-        <v>9951707</v>
+        <v>9951717</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>9951717</v>
+        <v>9951718</v>
       </c>
       <c r="B178">
-        <v>9951717</v>
+        <v>9951718</v>
       </c>
       <c r="C178" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D178">
-        <v>9951717</v>
+        <v>9951718</v>
       </c>
       <c r="F178">
         <v>99517</v>
@@ -8505,36 +8496,39 @@
         <v>23</v>
       </c>
       <c r="H178" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I178" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J178">
-        <v>136.95549</v>
+        <v>136.96620899999999</v>
       </c>
       <c r="K178">
-        <v>35.102358000000002</v>
+        <v>35.102684000000004</v>
+      </c>
+      <c r="L178" s="1">
+        <v>40629</v>
       </c>
       <c r="N178">
         <v>0</v>
       </c>
       <c r="O178">
-        <v>9951717</v>
+        <v>9951718</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>9951706</v>
+        <v>9951719</v>
       </c>
       <c r="B179">
-        <v>9951706</v>
+        <v>9951719</v>
       </c>
       <c r="C179" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D179">
-        <v>9951706</v>
+        <v>9951719</v>
       </c>
       <c r="F179">
         <v>99517</v>
@@ -8543,36 +8537,39 @@
         <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="I179" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="J179">
-        <v>136.91565600000001</v>
+        <v>136.97620800000001</v>
       </c>
       <c r="K179">
-        <v>35.174061999999999</v>
+        <v>35.102544999999999</v>
+      </c>
+      <c r="L179" s="1">
+        <v>40629</v>
       </c>
       <c r="N179">
         <v>0</v>
       </c>
       <c r="O179">
-        <v>9951706</v>
+        <v>9951719</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>9951718</v>
+        <v>9951720</v>
       </c>
       <c r="B180">
-        <v>9951718</v>
+        <v>9951720</v>
       </c>
       <c r="C180" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D180">
-        <v>9951718</v>
+        <v>9951720</v>
       </c>
       <c r="F180">
         <v>99517</v>
@@ -8581,16 +8578,16 @@
         <v>23</v>
       </c>
       <c r="H180" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I180" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J180">
-        <v>136.96620899999999</v>
+        <v>136.98954000000001</v>
       </c>
       <c r="K180">
-        <v>35.102684000000004</v>
+        <v>35.098517999999999</v>
       </c>
       <c r="L180" s="1">
         <v>40629</v>
@@ -8599,21 +8596,21 @@
         <v>0</v>
       </c>
       <c r="O180">
-        <v>9951718</v>
+        <v>9951720</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>9951716</v>
+        <v>9951721</v>
       </c>
       <c r="B181">
-        <v>9951716</v>
+        <v>9951721</v>
       </c>
       <c r="C181" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="D181">
-        <v>9951716</v>
+        <v>9951721</v>
       </c>
       <c r="F181">
         <v>99517</v>
@@ -8622,36 +8619,39 @@
         <v>23</v>
       </c>
       <c r="H181" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="I181" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="J181">
-        <v>136.943433</v>
+        <v>136.99815000000001</v>
       </c>
       <c r="K181">
-        <v>35.105738000000002</v>
+        <v>35.094490999999998</v>
+      </c>
+      <c r="L181" s="1">
+        <v>40629</v>
       </c>
       <c r="N181">
         <v>0</v>
       </c>
       <c r="O181">
-        <v>9951716</v>
+        <v>9951721</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>9951802</v>
+        <v>9951801</v>
       </c>
       <c r="B182">
-        <v>3001801</v>
+        <v>9951403</v>
       </c>
       <c r="C182" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="D182">
-        <v>3001801</v>
+        <v>9951403</v>
       </c>
       <c r="F182">
         <v>99518</v>
@@ -8660,36 +8660,36 @@
         <v>23</v>
       </c>
       <c r="H182" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="I182" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="J182">
-        <v>136.929642</v>
+        <v>136.92978400000001</v>
       </c>
       <c r="K182">
-        <v>35.203845000000001</v>
+        <v>35.195934000000001</v>
       </c>
       <c r="N182">
         <v>0</v>
       </c>
       <c r="O182">
-        <v>9951802</v>
+        <v>9951801</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>9951801</v>
+        <v>9951802</v>
       </c>
       <c r="B183">
-        <v>9951403</v>
+        <v>3001801</v>
       </c>
       <c r="C183" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="D183">
-        <v>9951403</v>
+        <v>3001801</v>
       </c>
       <c r="F183">
         <v>99518</v>
@@ -8698,36 +8698,36 @@
         <v>23</v>
       </c>
       <c r="H183" t="s">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="I183" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="J183">
-        <v>136.92978400000001</v>
+        <v>136.929642</v>
       </c>
       <c r="K183">
-        <v>35.195934000000001</v>
+        <v>35.203845000000001</v>
       </c>
       <c r="N183">
         <v>0</v>
       </c>
       <c r="O183">
-        <v>9951801</v>
+        <v>9951802</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>9952302</v>
+        <v>9952301</v>
       </c>
       <c r="B184">
-        <v>9951401</v>
+        <v>1141105</v>
       </c>
       <c r="C184" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="D184">
-        <v>9951401</v>
+        <v>1141105</v>
       </c>
       <c r="F184">
         <v>99523</v>
@@ -8736,36 +8736,36 @@
         <v>23</v>
       </c>
       <c r="H184" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="I184" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="J184">
-        <v>136.947407</v>
+        <v>136.93749399999999</v>
       </c>
       <c r="K184">
-        <v>35.190249999999999</v>
+        <v>35.191372000000001</v>
       </c>
       <c r="N184">
         <v>0</v>
       </c>
       <c r="O184">
-        <v>9952302</v>
+        <v>9952301</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>9952301</v>
+        <v>9952302</v>
       </c>
       <c r="B185">
-        <v>1141105</v>
+        <v>9951401</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="D185">
-        <v>1141105</v>
+        <v>9951401</v>
       </c>
       <c r="F185">
         <v>99523</v>
@@ -8774,36 +8774,36 @@
         <v>23</v>
       </c>
       <c r="H185" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I185" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="J185">
-        <v>136.93749399999999</v>
+        <v>136.947407</v>
       </c>
       <c r="K185">
-        <v>35.191372000000001</v>
+        <v>35.190249999999999</v>
       </c>
       <c r="N185">
         <v>0</v>
       </c>
       <c r="O185">
-        <v>9952301</v>
+        <v>9952302</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>9952304</v>
+        <v>9952303</v>
       </c>
       <c r="B186">
-        <v>3001208</v>
+        <v>9951428</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="D186">
-        <v>3001208</v>
+        <v>9951428</v>
       </c>
       <c r="F186">
         <v>99523</v>
@@ -8812,36 +8812,36 @@
         <v>23</v>
       </c>
       <c r="H186" t="s">
-        <v>432</v>
+        <v>144</v>
       </c>
       <c r="I186" t="s">
-        <v>433</v>
+        <v>340</v>
       </c>
       <c r="J186">
-        <v>136.956639</v>
+        <v>136.95426800000001</v>
       </c>
       <c r="K186">
-        <v>35.197431000000002</v>
+        <v>35.188820999999997</v>
       </c>
       <c r="N186">
         <v>0</v>
       </c>
       <c r="O186">
-        <v>9952304</v>
+        <v>9952303</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>9952309</v>
+        <v>9952304</v>
       </c>
       <c r="B187">
-        <v>9952309</v>
+        <v>3001208</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>59</v>
       </c>
       <c r="D187">
-        <v>9952309</v>
+        <v>3001208</v>
       </c>
       <c r="F187">
         <v>99523</v>
@@ -8850,36 +8850,36 @@
         <v>23</v>
       </c>
       <c r="H187" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="I187" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="J187">
-        <v>136.98283900000001</v>
+        <v>136.956639</v>
       </c>
       <c r="K187">
-        <v>35.218784999999997</v>
+        <v>35.197431000000002</v>
       </c>
       <c r="N187">
         <v>0</v>
       </c>
       <c r="O187">
-        <v>9952309</v>
+        <v>9952304</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>9952306</v>
+        <v>9952305</v>
       </c>
       <c r="B188">
-        <v>9952306</v>
+        <v>9952305</v>
       </c>
       <c r="C188" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D188">
-        <v>9952306</v>
+        <v>9952305</v>
       </c>
       <c r="F188">
         <v>99523</v>
@@ -8888,36 +8888,39 @@
         <v>23</v>
       </c>
       <c r="H188" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I188" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J188">
-        <v>136.96204700000001</v>
+        <v>136.95674700000001</v>
       </c>
       <c r="K188">
-        <v>35.210405000000002</v>
+        <v>35.202551</v>
+      </c>
+      <c r="L188" s="1">
+        <v>36973</v>
       </c>
       <c r="N188">
         <v>0</v>
       </c>
       <c r="O188">
-        <v>9952306</v>
+        <v>9952305</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>9952307</v>
+        <v>9952306</v>
       </c>
       <c r="B189">
-        <v>9952307</v>
+        <v>9952306</v>
       </c>
       <c r="C189" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D189">
-        <v>9952307</v>
+        <v>9952306</v>
       </c>
       <c r="F189">
         <v>99523</v>
@@ -8926,36 +8929,36 @@
         <v>23</v>
       </c>
       <c r="H189" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I189" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J189">
-        <v>136.968591</v>
+        <v>136.96204700000001</v>
       </c>
       <c r="K189">
-        <v>35.214297000000002</v>
+        <v>35.210405000000002</v>
       </c>
       <c r="N189">
         <v>0</v>
       </c>
       <c r="O189">
-        <v>9952307</v>
+        <v>9952306</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>9952308</v>
+        <v>9952307</v>
       </c>
       <c r="B190">
-        <v>9952308</v>
+        <v>9952307</v>
       </c>
       <c r="C190" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D190">
-        <v>9952308</v>
+        <v>9952307</v>
       </c>
       <c r="F190">
         <v>99523</v>
@@ -8964,36 +8967,36 @@
         <v>23</v>
       </c>
       <c r="H190" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I190" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J190">
-        <v>136.97856899999999</v>
+        <v>136.968591</v>
       </c>
       <c r="K190">
-        <v>35.216121000000001</v>
+        <v>35.214297000000002</v>
       </c>
       <c r="N190">
         <v>0</v>
       </c>
       <c r="O190">
-        <v>9952308</v>
+        <v>9952307</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>9952303</v>
+        <v>9952308</v>
       </c>
       <c r="B191">
-        <v>9951428</v>
+        <v>9952308</v>
       </c>
       <c r="C191" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
       <c r="D191">
-        <v>9951428</v>
+        <v>9952308</v>
       </c>
       <c r="F191">
         <v>99523</v>
@@ -9002,36 +9005,36 @@
         <v>23</v>
       </c>
       <c r="H191" t="s">
-        <v>144</v>
+        <v>444</v>
       </c>
       <c r="I191" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="J191">
-        <v>136.95426800000001</v>
+        <v>136.97856899999999</v>
       </c>
       <c r="K191">
-        <v>35.188820999999997</v>
+        <v>35.216121000000001</v>
       </c>
       <c r="N191">
         <v>0</v>
       </c>
       <c r="O191">
-        <v>9952303</v>
+        <v>9952308</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>9952305</v>
+        <v>9952309</v>
       </c>
       <c r="B192">
-        <v>9952305</v>
+        <v>9952309</v>
       </c>
       <c r="C192" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D192">
-        <v>9952305</v>
+        <v>9952309</v>
       </c>
       <c r="F192">
         <v>99523</v>
@@ -9040,31 +9043,28 @@
         <v>23</v>
       </c>
       <c r="H192" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="I192" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="J192">
-        <v>136.95674700000001</v>
+        <v>136.98283900000001</v>
       </c>
       <c r="K192">
-        <v>35.202551</v>
-      </c>
-      <c r="L192" s="1">
-        <v>36973</v>
+        <v>35.218784999999997</v>
       </c>
       <c r="N192">
         <v>0</v>
       </c>
       <c r="O192">
-        <v>9952305</v>
+        <v>9952309</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O191" xr:uid="{844C7A14-8E7D-DC41-B6E1-5D35CFB06648}">
+  <autoFilter ref="A1:O192" xr:uid="{8EEB7CE1-793B-2A40-B61D-B4F399E47179}">
     <sortState ref="A2:O192">
-      <sortCondition ref="F1:F192"/>
+      <sortCondition ref="A1:A192"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
